--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10405469-30EC-4378-ACAC-536A51F17F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45088BA-E355-4D59-B6D8-AA94E14D9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -87,15 +87,6 @@
     <t>CSET_CD</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
     <t>c_Pos_AndOr</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>ep_gas_steam_turbine*,ep_oil_steam_turbine*</t>
   </si>
   <si>
-    <t>ep_nuclear*,ep_nuclear_smr*</t>
-  </si>
-  <si>
     <t>Wind onshore</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>*WOF*</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
     <t>STG</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Int Comb</t>
   </si>
   <si>
-    <t>Bioenergy</t>
-  </si>
-  <si>
     <t>EN*STG?hb*,-*EV*</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>Or</t>
   </si>
   <si>
-    <t>-*SMR</t>
-  </si>
-  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -220,6 +199,135 @@
   </si>
   <si>
     <t>g[_]*</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>e*spv*</t>
+  </si>
+  <si>
+    <t>e*won*,e*wof*</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_transport</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>coal,gas,oil</t>
+  </si>
+  <si>
+    <t>geothermal,hydro,solar,wind</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>stepdown*</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>*ror*</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>*SMR*</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>-*SMR*</t>
+  </si>
+  <si>
+    <t>-*ror*</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
+  </si>
+  <si>
+    <t>distr*</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>stepup*</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
   </si>
 </sst>
 </file>
@@ -612,26 +720,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -648,27 +761,421 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>"e_*"&amp;K3</f>
+        <v>e_*220</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D23" si="0">"Elec-"&amp;K3&amp;"V"</f>
+        <v>Elec-220V</v>
+      </c>
+      <c r="K3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B23" si="1">"e_*"&amp;K4</f>
+        <v>e_*400</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-400V</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*380</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-380V</v>
+      </c>
+      <c r="K5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*225</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-225V</v>
+      </c>
+      <c r="K6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*330</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-330V</v>
+      </c>
+      <c r="K7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*275</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-275V</v>
+      </c>
+      <c r="K8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*420</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-420V</v>
+      </c>
+      <c r="K9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*300</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-300V</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*500</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-500V</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*750</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-750V</v>
+      </c>
+      <c r="K12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*450</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-450V</v>
+      </c>
+      <c r="K13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*515</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-515V</v>
+      </c>
+      <c r="K14">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*525</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-525V</v>
+      </c>
+      <c r="K15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*320</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-320V</v>
+      </c>
+      <c r="K16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*150</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-150V</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*270</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-270V</v>
+      </c>
+      <c r="K18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*350</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-350V</v>
+      </c>
+      <c r="K19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*250</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-250V</v>
+      </c>
+      <c r="K20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*200</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-200V</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*236</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-236V</v>
+      </c>
+      <c r="K22">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*600</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-600V</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="str">
+        <f>B28</f>
+        <v>bioenergy</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="str">
+        <f>B29</f>
+        <v>hydrogen</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="str">
+        <f>B30</f>
+        <v>nuclear</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="str">
+        <f>B31</f>
+        <v>ELC</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="str">
+        <f>B36</f>
+        <v>co2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="str">
+        <f>B37</f>
+        <v>co2captured</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D37">
+    <sortCondition ref="A26:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -719,205 +1226,544 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="D11" t="s">
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
       <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F23" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="str">
+        <f>"g[_]*"&amp;K26</f>
+        <v>g[_]*220</v>
+      </c>
+      <c r="F26" t="str">
+        <f>"Grid-"&amp;K26&amp;"V"</f>
+        <v>Grid-220V</v>
+      </c>
+      <c r="K26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:B46" si="0">"g[_]*"&amp;K27</f>
+        <v>g[_]*400</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ref="F27:F46" si="1">"Grid-"&amp;K27&amp;"V"</f>
+        <v>Grid-400V</v>
+      </c>
+      <c r="K27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*380</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-380V</v>
+      </c>
+      <c r="K28">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*225</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-225V</v>
+      </c>
+      <c r="K29">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*330</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-330V</v>
+      </c>
+      <c r="K30">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*275</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-275V</v>
+      </c>
+      <c r="K31">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*420</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-420V</v>
+      </c>
+      <c r="K32">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*300</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-300V</v>
+      </c>
+      <c r="K33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*500</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-500V</v>
+      </c>
+      <c r="K34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*750</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-750V</v>
+      </c>
+      <c r="K35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*450</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-450V</v>
+      </c>
+      <c r="K36">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*515</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-515V</v>
+      </c>
+      <c r="K37">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*525</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-525V</v>
+      </c>
+      <c r="K38">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*320</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-320V</v>
+      </c>
+      <c r="K39">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*150</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-150V</v>
+      </c>
+      <c r="K40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*270</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-270V</v>
+      </c>
+      <c r="K41">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*350</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-350V</v>
+      </c>
+      <c r="K42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*250</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-250V</v>
+      </c>
+      <c r="K43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*200</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-200V</v>
+      </c>
+      <c r="K44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*236</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-236V</v>
+      </c>
+      <c r="K45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*600</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-600V</v>
+      </c>
+      <c r="K46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -5,16 +5,17 @@
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45088BA-E355-4D59-B6D8-AA94E14D9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EEFF0B-FCA0-40C1-B2BF-53F821C81F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId2"/>
+    <sheet name="geo_sets" sheetId="3" r:id="rId2"/>
+    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1153">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -328,13 +329,3181 @@
   </si>
   <si>
     <t>Transformers Dn</t>
+  </si>
+  <si>
+    <t>~tfm_pset</t>
+  </si>
+  <si>
+    <t>setname</t>
+  </si>
+  <si>
+    <t>pset_co</t>
+  </si>
+  <si>
+    <t>p_IT1</t>
+  </si>
+  <si>
+    <t>e_IT1*</t>
+  </si>
+  <si>
+    <t>p_IT10</t>
+  </si>
+  <si>
+    <t>e_IT10*</t>
+  </si>
+  <si>
+    <t>p_IT100</t>
+  </si>
+  <si>
+    <t>e_IT100*</t>
+  </si>
+  <si>
+    <t>p_IT101</t>
+  </si>
+  <si>
+    <t>e_IT101*</t>
+  </si>
+  <si>
+    <t>p_IT102</t>
+  </si>
+  <si>
+    <t>e_IT102*</t>
+  </si>
+  <si>
+    <t>p_IT103</t>
+  </si>
+  <si>
+    <t>e_IT103*</t>
+  </si>
+  <si>
+    <t>p_IT104</t>
+  </si>
+  <si>
+    <t>e_IT104*</t>
+  </si>
+  <si>
+    <t>p_IT105</t>
+  </si>
+  <si>
+    <t>e_IT105*</t>
+  </si>
+  <si>
+    <t>p_IT106</t>
+  </si>
+  <si>
+    <t>e_IT106*</t>
+  </si>
+  <si>
+    <t>p_IT107</t>
+  </si>
+  <si>
+    <t>e_IT107*</t>
+  </si>
+  <si>
+    <t>p_IT108</t>
+  </si>
+  <si>
+    <t>e_IT108*</t>
+  </si>
+  <si>
+    <t>p_IT109</t>
+  </si>
+  <si>
+    <t>e_IT109*</t>
+  </si>
+  <si>
+    <t>p_IT11</t>
+  </si>
+  <si>
+    <t>e_IT11*</t>
+  </si>
+  <si>
+    <t>p_IT110</t>
+  </si>
+  <si>
+    <t>e_IT110*</t>
+  </si>
+  <si>
+    <t>p_IT111</t>
+  </si>
+  <si>
+    <t>e_IT111*</t>
+  </si>
+  <si>
+    <t>p_IT112</t>
+  </si>
+  <si>
+    <t>e_IT112*</t>
+  </si>
+  <si>
+    <t>p_IT113</t>
+  </si>
+  <si>
+    <t>e_IT113*</t>
+  </si>
+  <si>
+    <t>p_IT115</t>
+  </si>
+  <si>
+    <t>e_IT115*</t>
+  </si>
+  <si>
+    <t>p_IT116</t>
+  </si>
+  <si>
+    <t>e_IT116*</t>
+  </si>
+  <si>
+    <t>p_IT117</t>
+  </si>
+  <si>
+    <t>e_IT117*</t>
+  </si>
+  <si>
+    <t>p_IT118</t>
+  </si>
+  <si>
+    <t>e_IT118*</t>
+  </si>
+  <si>
+    <t>p_IT119</t>
+  </si>
+  <si>
+    <t>e_IT119*</t>
+  </si>
+  <si>
+    <t>p_IT12</t>
+  </si>
+  <si>
+    <t>e_IT12*</t>
+  </si>
+  <si>
+    <t>p_IT120</t>
+  </si>
+  <si>
+    <t>e_IT120*</t>
+  </si>
+  <si>
+    <t>p_IT121</t>
+  </si>
+  <si>
+    <t>e_IT121*</t>
+  </si>
+  <si>
+    <t>p_IT122</t>
+  </si>
+  <si>
+    <t>e_IT122*</t>
+  </si>
+  <si>
+    <t>p_IT123</t>
+  </si>
+  <si>
+    <t>e_IT123*</t>
+  </si>
+  <si>
+    <t>p_IT124</t>
+  </si>
+  <si>
+    <t>e_IT124*</t>
+  </si>
+  <si>
+    <t>p_IT125</t>
+  </si>
+  <si>
+    <t>e_IT125*</t>
+  </si>
+  <si>
+    <t>p_IT126</t>
+  </si>
+  <si>
+    <t>e_IT126*</t>
+  </si>
+  <si>
+    <t>p_IT127</t>
+  </si>
+  <si>
+    <t>e_IT127*</t>
+  </si>
+  <si>
+    <t>p_IT128</t>
+  </si>
+  <si>
+    <t>e_IT128*</t>
+  </si>
+  <si>
+    <t>p_IT129</t>
+  </si>
+  <si>
+    <t>e_IT129*</t>
+  </si>
+  <si>
+    <t>p_IT13</t>
+  </si>
+  <si>
+    <t>e_IT13*</t>
+  </si>
+  <si>
+    <t>p_IT130</t>
+  </si>
+  <si>
+    <t>e_IT130*</t>
+  </si>
+  <si>
+    <t>p_IT131</t>
+  </si>
+  <si>
+    <t>e_IT131*</t>
+  </si>
+  <si>
+    <t>p_IT132</t>
+  </si>
+  <si>
+    <t>e_IT132*</t>
+  </si>
+  <si>
+    <t>p_IT133</t>
+  </si>
+  <si>
+    <t>e_IT133*</t>
+  </si>
+  <si>
+    <t>p_IT134</t>
+  </si>
+  <si>
+    <t>e_IT134*</t>
+  </si>
+  <si>
+    <t>p_IT135</t>
+  </si>
+  <si>
+    <t>e_IT135*</t>
+  </si>
+  <si>
+    <t>p_IT136</t>
+  </si>
+  <si>
+    <t>e_IT136*</t>
+  </si>
+  <si>
+    <t>p_IT137</t>
+  </si>
+  <si>
+    <t>e_IT137*</t>
+  </si>
+  <si>
+    <t>p_IT138</t>
+  </si>
+  <si>
+    <t>e_IT138*</t>
+  </si>
+  <si>
+    <t>p_IT139</t>
+  </si>
+  <si>
+    <t>e_IT139*</t>
+  </si>
+  <si>
+    <t>p_IT14</t>
+  </si>
+  <si>
+    <t>e_IT14*</t>
+  </si>
+  <si>
+    <t>p_IT140</t>
+  </si>
+  <si>
+    <t>e_IT140*</t>
+  </si>
+  <si>
+    <t>p_IT141</t>
+  </si>
+  <si>
+    <t>e_IT141*</t>
+  </si>
+  <si>
+    <t>p_IT142</t>
+  </si>
+  <si>
+    <t>e_IT142*</t>
+  </si>
+  <si>
+    <t>p_IT143</t>
+  </si>
+  <si>
+    <t>e_IT143*</t>
+  </si>
+  <si>
+    <t>p_IT15</t>
+  </si>
+  <si>
+    <t>e_IT15*</t>
+  </si>
+  <si>
+    <t>p_IT16</t>
+  </si>
+  <si>
+    <t>e_IT16*</t>
+  </si>
+  <si>
+    <t>p_IT17</t>
+  </si>
+  <si>
+    <t>e_IT17*</t>
+  </si>
+  <si>
+    <t>p_IT18</t>
+  </si>
+  <si>
+    <t>e_IT18*</t>
+  </si>
+  <si>
+    <t>p_IT19</t>
+  </si>
+  <si>
+    <t>e_IT19*</t>
+  </si>
+  <si>
+    <t>p_IT2</t>
+  </si>
+  <si>
+    <t>e_IT2*</t>
+  </si>
+  <si>
+    <t>p_IT20</t>
+  </si>
+  <si>
+    <t>e_IT20*</t>
+  </si>
+  <si>
+    <t>p_IT21</t>
+  </si>
+  <si>
+    <t>e_IT21*</t>
+  </si>
+  <si>
+    <t>p_IT23</t>
+  </si>
+  <si>
+    <t>e_IT23*</t>
+  </si>
+  <si>
+    <t>p_IT24</t>
+  </si>
+  <si>
+    <t>e_IT24*</t>
+  </si>
+  <si>
+    <t>p_IT25</t>
+  </si>
+  <si>
+    <t>e_IT25*</t>
+  </si>
+  <si>
+    <t>p_IT26</t>
+  </si>
+  <si>
+    <t>e_IT26*</t>
+  </si>
+  <si>
+    <t>p_IT27</t>
+  </si>
+  <si>
+    <t>e_IT27*</t>
+  </si>
+  <si>
+    <t>p_IT28</t>
+  </si>
+  <si>
+    <t>e_IT28*</t>
+  </si>
+  <si>
+    <t>p_IT29</t>
+  </si>
+  <si>
+    <t>e_IT29*</t>
+  </si>
+  <si>
+    <t>p_IT3</t>
+  </si>
+  <si>
+    <t>e_IT3*</t>
+  </si>
+  <si>
+    <t>p_IT30</t>
+  </si>
+  <si>
+    <t>e_IT30*</t>
+  </si>
+  <si>
+    <t>p_IT31</t>
+  </si>
+  <si>
+    <t>e_IT31*</t>
+  </si>
+  <si>
+    <t>p_IT33</t>
+  </si>
+  <si>
+    <t>e_IT33*</t>
+  </si>
+  <si>
+    <t>p_IT34</t>
+  </si>
+  <si>
+    <t>e_IT34*</t>
+  </si>
+  <si>
+    <t>p_IT36</t>
+  </si>
+  <si>
+    <t>e_IT36*</t>
+  </si>
+  <si>
+    <t>p_IT38</t>
+  </si>
+  <si>
+    <t>e_IT38*</t>
+  </si>
+  <si>
+    <t>p_IT39</t>
+  </si>
+  <si>
+    <t>e_IT39*</t>
+  </si>
+  <si>
+    <t>p_IT4</t>
+  </si>
+  <si>
+    <t>e_IT4*</t>
+  </si>
+  <si>
+    <t>p_IT42</t>
+  </si>
+  <si>
+    <t>e_IT42*</t>
+  </si>
+  <si>
+    <t>p_IT43</t>
+  </si>
+  <si>
+    <t>e_IT43*</t>
+  </si>
+  <si>
+    <t>p_IT44</t>
+  </si>
+  <si>
+    <t>e_IT44*</t>
+  </si>
+  <si>
+    <t>p_IT45</t>
+  </si>
+  <si>
+    <t>e_IT45*</t>
+  </si>
+  <si>
+    <t>p_IT46</t>
+  </si>
+  <si>
+    <t>e_IT46*</t>
+  </si>
+  <si>
+    <t>p_IT47</t>
+  </si>
+  <si>
+    <t>e_IT47*</t>
+  </si>
+  <si>
+    <t>p_IT48</t>
+  </si>
+  <si>
+    <t>e_IT48*</t>
+  </si>
+  <si>
+    <t>p_IT49</t>
+  </si>
+  <si>
+    <t>e_IT49*</t>
+  </si>
+  <si>
+    <t>p_IT5</t>
+  </si>
+  <si>
+    <t>e_IT5*</t>
+  </si>
+  <si>
+    <t>p_IT50</t>
+  </si>
+  <si>
+    <t>e_IT50*</t>
+  </si>
+  <si>
+    <t>p_IT51</t>
+  </si>
+  <si>
+    <t>e_IT51*</t>
+  </si>
+  <si>
+    <t>p_IT52</t>
+  </si>
+  <si>
+    <t>e_IT52*</t>
+  </si>
+  <si>
+    <t>p_IT53</t>
+  </si>
+  <si>
+    <t>e_IT53*</t>
+  </si>
+  <si>
+    <t>p_IT54</t>
+  </si>
+  <si>
+    <t>e_IT54*</t>
+  </si>
+  <si>
+    <t>p_IT55</t>
+  </si>
+  <si>
+    <t>e_IT55*</t>
+  </si>
+  <si>
+    <t>p_IT56</t>
+  </si>
+  <si>
+    <t>e_IT56*</t>
+  </si>
+  <si>
+    <t>p_IT57</t>
+  </si>
+  <si>
+    <t>e_IT57*</t>
+  </si>
+  <si>
+    <t>p_IT58</t>
+  </si>
+  <si>
+    <t>e_IT58*</t>
+  </si>
+  <si>
+    <t>p_IT59</t>
+  </si>
+  <si>
+    <t>e_IT59*</t>
+  </si>
+  <si>
+    <t>p_IT6</t>
+  </si>
+  <si>
+    <t>e_IT6*</t>
+  </si>
+  <si>
+    <t>p_IT60</t>
+  </si>
+  <si>
+    <t>e_IT60*</t>
+  </si>
+  <si>
+    <t>p_IT61</t>
+  </si>
+  <si>
+    <t>e_IT61*</t>
+  </si>
+  <si>
+    <t>p_IT62</t>
+  </si>
+  <si>
+    <t>e_IT62*</t>
+  </si>
+  <si>
+    <t>p_IT63</t>
+  </si>
+  <si>
+    <t>e_IT63*</t>
+  </si>
+  <si>
+    <t>p_IT64</t>
+  </si>
+  <si>
+    <t>e_IT64*</t>
+  </si>
+  <si>
+    <t>p_IT65</t>
+  </si>
+  <si>
+    <t>e_IT65*</t>
+  </si>
+  <si>
+    <t>p_IT66</t>
+  </si>
+  <si>
+    <t>e_IT66*</t>
+  </si>
+  <si>
+    <t>p_IT67</t>
+  </si>
+  <si>
+    <t>e_IT67*</t>
+  </si>
+  <si>
+    <t>p_IT68</t>
+  </si>
+  <si>
+    <t>e_IT68*</t>
+  </si>
+  <si>
+    <t>p_IT69</t>
+  </si>
+  <si>
+    <t>e_IT69*</t>
+  </si>
+  <si>
+    <t>p_IT7</t>
+  </si>
+  <si>
+    <t>e_IT7*</t>
+  </si>
+  <si>
+    <t>p_IT70</t>
+  </si>
+  <si>
+    <t>e_IT70*</t>
+  </si>
+  <si>
+    <t>p_IT71</t>
+  </si>
+  <si>
+    <t>e_IT71*</t>
+  </si>
+  <si>
+    <t>p_IT72</t>
+  </si>
+  <si>
+    <t>e_IT72*</t>
+  </si>
+  <si>
+    <t>p_IT73</t>
+  </si>
+  <si>
+    <t>e_IT73*</t>
+  </si>
+  <si>
+    <t>p_IT74</t>
+  </si>
+  <si>
+    <t>e_IT74*</t>
+  </si>
+  <si>
+    <t>p_IT75</t>
+  </si>
+  <si>
+    <t>e_IT75*</t>
+  </si>
+  <si>
+    <t>p_IT76</t>
+  </si>
+  <si>
+    <t>e_IT76*</t>
+  </si>
+  <si>
+    <t>p_IT77</t>
+  </si>
+  <si>
+    <t>e_IT77*</t>
+  </si>
+  <si>
+    <t>p_IT78</t>
+  </si>
+  <si>
+    <t>e_IT78*</t>
+  </si>
+  <si>
+    <t>p_IT79</t>
+  </si>
+  <si>
+    <t>e_IT79*</t>
+  </si>
+  <si>
+    <t>p_IT8</t>
+  </si>
+  <si>
+    <t>e_IT8*</t>
+  </si>
+  <si>
+    <t>p_IT80</t>
+  </si>
+  <si>
+    <t>e_IT80*</t>
+  </si>
+  <si>
+    <t>p_IT81</t>
+  </si>
+  <si>
+    <t>e_IT81*</t>
+  </si>
+  <si>
+    <t>p_IT82</t>
+  </si>
+  <si>
+    <t>e_IT82*</t>
+  </si>
+  <si>
+    <t>p_IT83</t>
+  </si>
+  <si>
+    <t>e_IT83*</t>
+  </si>
+  <si>
+    <t>p_IT84</t>
+  </si>
+  <si>
+    <t>e_IT84*</t>
+  </si>
+  <si>
+    <t>p_IT85</t>
+  </si>
+  <si>
+    <t>e_IT85*</t>
+  </si>
+  <si>
+    <t>p_IT86</t>
+  </si>
+  <si>
+    <t>e_IT86*</t>
+  </si>
+  <si>
+    <t>p_IT87</t>
+  </si>
+  <si>
+    <t>e_IT87*</t>
+  </si>
+  <si>
+    <t>p_IT88</t>
+  </si>
+  <si>
+    <t>e_IT88*</t>
+  </si>
+  <si>
+    <t>p_IT89</t>
+  </si>
+  <si>
+    <t>e_IT89*</t>
+  </si>
+  <si>
+    <t>p_IT9</t>
+  </si>
+  <si>
+    <t>e_IT9*</t>
+  </si>
+  <si>
+    <t>p_IT90</t>
+  </si>
+  <si>
+    <t>e_IT90*</t>
+  </si>
+  <si>
+    <t>p_IT91</t>
+  </si>
+  <si>
+    <t>e_IT91*</t>
+  </si>
+  <si>
+    <t>p_IT92</t>
+  </si>
+  <si>
+    <t>e_IT92*</t>
+  </si>
+  <si>
+    <t>p_IT93</t>
+  </si>
+  <si>
+    <t>e_IT93*</t>
+  </si>
+  <si>
+    <t>p_IT94</t>
+  </si>
+  <si>
+    <t>e_IT94*</t>
+  </si>
+  <si>
+    <t>p_IT95</t>
+  </si>
+  <si>
+    <t>e_IT95*</t>
+  </si>
+  <si>
+    <t>p_IT96</t>
+  </si>
+  <si>
+    <t>e_IT96*</t>
+  </si>
+  <si>
+    <t>p_IT97</t>
+  </si>
+  <si>
+    <t>e_IT97*</t>
+  </si>
+  <si>
+    <t>p_IT98</t>
+  </si>
+  <si>
+    <t>e_IT98*</t>
+  </si>
+  <si>
+    <t>p_IT99</t>
+  </si>
+  <si>
+    <t>e_IT99*</t>
+  </si>
+  <si>
+    <t>p_r13020240</t>
+  </si>
+  <si>
+    <t>e_r13020240*</t>
+  </si>
+  <si>
+    <t>p_r1377432</t>
+  </si>
+  <si>
+    <t>e_r1377432*</t>
+  </si>
+  <si>
+    <t>p_r13844905</t>
+  </si>
+  <si>
+    <t>e_r13844905*</t>
+  </si>
+  <si>
+    <t>p_r17467354</t>
+  </si>
+  <si>
+    <t>e_r17467354*</t>
+  </si>
+  <si>
+    <t>p_r6277789</t>
+  </si>
+  <si>
+    <t>e_r6277789*</t>
+  </si>
+  <si>
+    <t>p_r6301099</t>
+  </si>
+  <si>
+    <t>e_r6301099*</t>
+  </si>
+  <si>
+    <t>p_r7837848</t>
+  </si>
+  <si>
+    <t>e_r7837848*</t>
+  </si>
+  <si>
+    <t>p_r8840420</t>
+  </si>
+  <si>
+    <t>e_r8840420*</t>
+  </si>
+  <si>
+    <t>p_w100113593</t>
+  </si>
+  <si>
+    <t>e_w100113593*</t>
+  </si>
+  <si>
+    <t>p_w100253768</t>
+  </si>
+  <si>
+    <t>e_w100253768*</t>
+  </si>
+  <si>
+    <t>p_w100407576</t>
+  </si>
+  <si>
+    <t>e_w100407576*</t>
+  </si>
+  <si>
+    <t>p_w100952845</t>
+  </si>
+  <si>
+    <t>e_w100952845*</t>
+  </si>
+  <si>
+    <t>p_w101346507</t>
+  </si>
+  <si>
+    <t>e_w101346507*</t>
+  </si>
+  <si>
+    <t>p_w101346508</t>
+  </si>
+  <si>
+    <t>e_w101346508*</t>
+  </si>
+  <si>
+    <t>p_w102185356</t>
+  </si>
+  <si>
+    <t>e_w102185356*</t>
+  </si>
+  <si>
+    <t>p_w102185362</t>
+  </si>
+  <si>
+    <t>e_w102185362*</t>
+  </si>
+  <si>
+    <t>p_w102287716</t>
+  </si>
+  <si>
+    <t>e_w102287716*</t>
+  </si>
+  <si>
+    <t>p_w102675884</t>
+  </si>
+  <si>
+    <t>e_w102675884*</t>
+  </si>
+  <si>
+    <t>p_w103007030</t>
+  </si>
+  <si>
+    <t>e_w103007030*</t>
+  </si>
+  <si>
+    <t>p_w103007085</t>
+  </si>
+  <si>
+    <t>e_w103007085*</t>
+  </si>
+  <si>
+    <t>p_w103127417</t>
+  </si>
+  <si>
+    <t>e_w103127417*</t>
+  </si>
+  <si>
+    <t>p_w103264820</t>
+  </si>
+  <si>
+    <t>e_w103264820*</t>
+  </si>
+  <si>
+    <t>p_w103306951</t>
+  </si>
+  <si>
+    <t>e_w103306951*</t>
+  </si>
+  <si>
+    <t>p_w103381531</t>
+  </si>
+  <si>
+    <t>e_w103381531*</t>
+  </si>
+  <si>
+    <t>p_w103386958</t>
+  </si>
+  <si>
+    <t>e_w103386958*</t>
+  </si>
+  <si>
+    <t>p_w103418587</t>
+  </si>
+  <si>
+    <t>e_w103418587*</t>
+  </si>
+  <si>
+    <t>p_w103549584</t>
+  </si>
+  <si>
+    <t>e_w103549584*</t>
+  </si>
+  <si>
+    <t>p_w103653565</t>
+  </si>
+  <si>
+    <t>e_w103653565*</t>
+  </si>
+  <si>
+    <t>p_w103653567</t>
+  </si>
+  <si>
+    <t>e_w103653567*</t>
+  </si>
+  <si>
+    <t>p_w103653591</t>
+  </si>
+  <si>
+    <t>e_w103653591*</t>
+  </si>
+  <si>
+    <t>p_w103725268</t>
+  </si>
+  <si>
+    <t>e_w103725268*</t>
+  </si>
+  <si>
+    <t>p_w103725446</t>
+  </si>
+  <si>
+    <t>e_w103725446*</t>
+  </si>
+  <si>
+    <t>p_w103974940</t>
+  </si>
+  <si>
+    <t>e_w103974940*</t>
+  </si>
+  <si>
+    <t>p_w103974946</t>
+  </si>
+  <si>
+    <t>e_w103974946*</t>
+  </si>
+  <si>
+    <t>p_w104114052</t>
+  </si>
+  <si>
+    <t>e_w104114052*</t>
+  </si>
+  <si>
+    <t>p_w104239286</t>
+  </si>
+  <si>
+    <t>e_w104239286*</t>
+  </si>
+  <si>
+    <t>p_w104239342</t>
+  </si>
+  <si>
+    <t>e_w104239342*</t>
+  </si>
+  <si>
+    <t>p_w104239352</t>
+  </si>
+  <si>
+    <t>e_w104239352*</t>
+  </si>
+  <si>
+    <t>p_w104321356</t>
+  </si>
+  <si>
+    <t>e_w104321356*</t>
+  </si>
+  <si>
+    <t>p_w104359058</t>
+  </si>
+  <si>
+    <t>e_w104359058*</t>
+  </si>
+  <si>
+    <t>p_w105062415</t>
+  </si>
+  <si>
+    <t>e_w105062415*</t>
+  </si>
+  <si>
+    <t>p_w105141307</t>
+  </si>
+  <si>
+    <t>e_w105141307*</t>
+  </si>
+  <si>
+    <t>p_w105141350</t>
+  </si>
+  <si>
+    <t>e_w105141350*</t>
+  </si>
+  <si>
+    <t>p_w105141365</t>
+  </si>
+  <si>
+    <t>e_w105141365*</t>
+  </si>
+  <si>
+    <t>p_w105153431</t>
+  </si>
+  <si>
+    <t>e_w105153431*</t>
+  </si>
+  <si>
+    <t>p_w1051991398</t>
+  </si>
+  <si>
+    <t>e_w1051991398*</t>
+  </si>
+  <si>
+    <t>p_w105462289</t>
+  </si>
+  <si>
+    <t>e_w105462289*</t>
+  </si>
+  <si>
+    <t>p_w105757794</t>
+  </si>
+  <si>
+    <t>e_w105757794*</t>
+  </si>
+  <si>
+    <t>p_w105757795</t>
+  </si>
+  <si>
+    <t>e_w105757795*</t>
+  </si>
+  <si>
+    <t>p_w105801489</t>
+  </si>
+  <si>
+    <t>e_w105801489*</t>
+  </si>
+  <si>
+    <t>p_w105827045</t>
+  </si>
+  <si>
+    <t>e_w105827045*</t>
+  </si>
+  <si>
+    <t>p_w107204719</t>
+  </si>
+  <si>
+    <t>e_w107204719*</t>
+  </si>
+  <si>
+    <t>p_w107438024</t>
+  </si>
+  <si>
+    <t>e_w107438024*</t>
+  </si>
+  <si>
+    <t>p_w107681459</t>
+  </si>
+  <si>
+    <t>e_w107681459*</t>
+  </si>
+  <si>
+    <t>p_w107683818</t>
+  </si>
+  <si>
+    <t>e_w107683818*</t>
+  </si>
+  <si>
+    <t>p_w108020416</t>
+  </si>
+  <si>
+    <t>e_w108020416*</t>
+  </si>
+  <si>
+    <t>p_w108050523</t>
+  </si>
+  <si>
+    <t>e_w108050523*</t>
+  </si>
+  <si>
+    <t>p_w109588422</t>
+  </si>
+  <si>
+    <t>e_w109588422*</t>
+  </si>
+  <si>
+    <t>p_w109756016</t>
+  </si>
+  <si>
+    <t>e_w109756016*</t>
+  </si>
+  <si>
+    <t>p_w1097982502</t>
+  </si>
+  <si>
+    <t>e_w1097982502*</t>
+  </si>
+  <si>
+    <t>p_w1098087457</t>
+  </si>
+  <si>
+    <t>e_w1098087457*</t>
+  </si>
+  <si>
+    <t>p_w1098527891</t>
+  </si>
+  <si>
+    <t>e_w1098527891*</t>
+  </si>
+  <si>
+    <t>p_w109993642</t>
+  </si>
+  <si>
+    <t>e_w109993642*</t>
+  </si>
+  <si>
+    <t>p_w109997676</t>
+  </si>
+  <si>
+    <t>e_w109997676*</t>
+  </si>
+  <si>
+    <t>p_w1100665914</t>
+  </si>
+  <si>
+    <t>e_w1100665914*</t>
+  </si>
+  <si>
+    <t>p_w110138220</t>
+  </si>
+  <si>
+    <t>e_w110138220*</t>
+  </si>
+  <si>
+    <t>p_w110310021</t>
+  </si>
+  <si>
+    <t>e_w110310021*</t>
+  </si>
+  <si>
+    <t>p_w110330925</t>
+  </si>
+  <si>
+    <t>e_w110330925*</t>
+  </si>
+  <si>
+    <t>p_w1103579629</t>
+  </si>
+  <si>
+    <t>e_w1103579629*</t>
+  </si>
+  <si>
+    <t>p_w110660048</t>
+  </si>
+  <si>
+    <t>e_w110660048*</t>
+  </si>
+  <si>
+    <t>p_w111020792</t>
+  </si>
+  <si>
+    <t>e_w111020792*</t>
+  </si>
+  <si>
+    <t>p_w1117128898</t>
+  </si>
+  <si>
+    <t>e_w1117128898*</t>
+  </si>
+  <si>
+    <t>p_w1134655722</t>
+  </si>
+  <si>
+    <t>e_w1134655722*</t>
+  </si>
+  <si>
+    <t>p_w114659171</t>
+  </si>
+  <si>
+    <t>e_w114659171*</t>
+  </si>
+  <si>
+    <t>p_w114661587</t>
+  </si>
+  <si>
+    <t>e_w114661587*</t>
+  </si>
+  <si>
+    <t>p_w114931087</t>
+  </si>
+  <si>
+    <t>e_w114931087*</t>
+  </si>
+  <si>
+    <t>p_w1155109902</t>
+  </si>
+  <si>
+    <t>e_w1155109902*</t>
+  </si>
+  <si>
+    <t>p_w1155116746</t>
+  </si>
+  <si>
+    <t>e_w1155116746*</t>
+  </si>
+  <si>
+    <t>p_w1158716725</t>
+  </si>
+  <si>
+    <t>e_w1158716725*</t>
+  </si>
+  <si>
+    <t>p_w116517585</t>
+  </si>
+  <si>
+    <t>e_w116517585*</t>
+  </si>
+  <si>
+    <t>p_w116518388</t>
+  </si>
+  <si>
+    <t>e_w116518388*</t>
+  </si>
+  <si>
+    <t>p_w116519166</t>
+  </si>
+  <si>
+    <t>e_w116519166*</t>
+  </si>
+  <si>
+    <t>p_w116692433</t>
+  </si>
+  <si>
+    <t>e_w116692433*</t>
+  </si>
+  <si>
+    <t>p_w116697005</t>
+  </si>
+  <si>
+    <t>e_w116697005*</t>
+  </si>
+  <si>
+    <t>p_w116797658</t>
+  </si>
+  <si>
+    <t>e_w116797658*</t>
+  </si>
+  <si>
+    <t>p_w118987056</t>
+  </si>
+  <si>
+    <t>e_w118987056*</t>
+  </si>
+  <si>
+    <t>p_w1203262444</t>
+  </si>
+  <si>
+    <t>e_w1203262444*</t>
+  </si>
+  <si>
+    <t>p_w120356593</t>
+  </si>
+  <si>
+    <t>e_w120356593*</t>
+  </si>
+  <si>
+    <t>p_w1204275778</t>
+  </si>
+  <si>
+    <t>e_w1204275778*</t>
+  </si>
+  <si>
+    <t>p_w1205235724</t>
+  </si>
+  <si>
+    <t>e_w1205235724*</t>
+  </si>
+  <si>
+    <t>p_w120916823</t>
+  </si>
+  <si>
+    <t>e_w120916823*</t>
+  </si>
+  <si>
+    <t>p_w124220303</t>
+  </si>
+  <si>
+    <t>e_w124220303*</t>
+  </si>
+  <si>
+    <t>p_w126203383</t>
+  </si>
+  <si>
+    <t>e_w126203383*</t>
+  </si>
+  <si>
+    <t>p_w129406824</t>
+  </si>
+  <si>
+    <t>e_w129406824*</t>
+  </si>
+  <si>
+    <t>p_w131291789</t>
+  </si>
+  <si>
+    <t>e_w131291789*</t>
+  </si>
+  <si>
+    <t>p_w131295368</t>
+  </si>
+  <si>
+    <t>e_w131295368*</t>
+  </si>
+  <si>
+    <t>p_w1317893096</t>
+  </si>
+  <si>
+    <t>e_w1317893096*</t>
+  </si>
+  <si>
+    <t>p_w132455976</t>
+  </si>
+  <si>
+    <t>e_w132455976*</t>
+  </si>
+  <si>
+    <t>p_w132637884</t>
+  </si>
+  <si>
+    <t>e_w132637884*</t>
+  </si>
+  <si>
+    <t>p_w132638645</t>
+  </si>
+  <si>
+    <t>e_w132638645*</t>
+  </si>
+  <si>
+    <t>p_w132643428</t>
+  </si>
+  <si>
+    <t>e_w132643428*</t>
+  </si>
+  <si>
+    <t>p_w132645607</t>
+  </si>
+  <si>
+    <t>e_w132645607*</t>
+  </si>
+  <si>
+    <t>p_w132701023</t>
+  </si>
+  <si>
+    <t>e_w132701023*</t>
+  </si>
+  <si>
+    <t>p_w132701980</t>
+  </si>
+  <si>
+    <t>e_w132701980*</t>
+  </si>
+  <si>
+    <t>p_w132702940</t>
+  </si>
+  <si>
+    <t>e_w132702940*</t>
+  </si>
+  <si>
+    <t>p_w132725149</t>
+  </si>
+  <si>
+    <t>e_w132725149*</t>
+  </si>
+  <si>
+    <t>p_w132726160</t>
+  </si>
+  <si>
+    <t>e_w132726160*</t>
+  </si>
+  <si>
+    <t>p_w133601335</t>
+  </si>
+  <si>
+    <t>e_w133601335*</t>
+  </si>
+  <si>
+    <t>p_w135270825</t>
+  </si>
+  <si>
+    <t>e_w135270825*</t>
+  </si>
+  <si>
+    <t>p_w136457747</t>
+  </si>
+  <si>
+    <t>e_w136457747*</t>
+  </si>
+  <si>
+    <t>p_w136762727</t>
+  </si>
+  <si>
+    <t>e_w136762727*</t>
+  </si>
+  <si>
+    <t>p_w136789074</t>
+  </si>
+  <si>
+    <t>e_w136789074*</t>
+  </si>
+  <si>
+    <t>p_w137317951</t>
+  </si>
+  <si>
+    <t>e_w137317951*</t>
+  </si>
+  <si>
+    <t>p_w139442467</t>
+  </si>
+  <si>
+    <t>e_w139442467*</t>
+  </si>
+  <si>
+    <t>p_w139758444</t>
+  </si>
+  <si>
+    <t>e_w139758444*</t>
+  </si>
+  <si>
+    <t>p_w139975773</t>
+  </si>
+  <si>
+    <t>e_w139975773*</t>
+  </si>
+  <si>
+    <t>p_w140715391</t>
+  </si>
+  <si>
+    <t>e_w140715391*</t>
+  </si>
+  <si>
+    <t>p_w141046481</t>
+  </si>
+  <si>
+    <t>e_w141046481*</t>
+  </si>
+  <si>
+    <t>p_w143585004</t>
+  </si>
+  <si>
+    <t>e_w143585004*</t>
+  </si>
+  <si>
+    <t>p_w144005861</t>
+  </si>
+  <si>
+    <t>e_w144005861*</t>
+  </si>
+  <si>
+    <t>p_w144005863</t>
+  </si>
+  <si>
+    <t>e_w144005863*</t>
+  </si>
+  <si>
+    <t>p_w144006711</t>
+  </si>
+  <si>
+    <t>e_w144006711*</t>
+  </si>
+  <si>
+    <t>p_w144378054</t>
+  </si>
+  <si>
+    <t>e_w144378054*</t>
+  </si>
+  <si>
+    <t>p_w145665799</t>
+  </si>
+  <si>
+    <t>e_w145665799*</t>
+  </si>
+  <si>
+    <t>p_w145665862</t>
+  </si>
+  <si>
+    <t>e_w145665862*</t>
+  </si>
+  <si>
+    <t>p_w146791061</t>
+  </si>
+  <si>
+    <t>e_w146791061*</t>
+  </si>
+  <si>
+    <t>p_w146791215</t>
+  </si>
+  <si>
+    <t>e_w146791215*</t>
+  </si>
+  <si>
+    <t>p_w147466201</t>
+  </si>
+  <si>
+    <t>e_w147466201*</t>
+  </si>
+  <si>
+    <t>p_w148969091</t>
+  </si>
+  <si>
+    <t>e_w148969091*</t>
+  </si>
+  <si>
+    <t>p_w149188707</t>
+  </si>
+  <si>
+    <t>e_w149188707*</t>
+  </si>
+  <si>
+    <t>p_w149997403</t>
+  </si>
+  <si>
+    <t>e_w149997403*</t>
+  </si>
+  <si>
+    <t>p_w151070909</t>
+  </si>
+  <si>
+    <t>e_w151070909*</t>
+  </si>
+  <si>
+    <t>p_w151335166</t>
+  </si>
+  <si>
+    <t>e_w151335166*</t>
+  </si>
+  <si>
+    <t>p_w152457216</t>
+  </si>
+  <si>
+    <t>e_w152457216*</t>
+  </si>
+  <si>
+    <t>p_w152465478</t>
+  </si>
+  <si>
+    <t>e_w152465478*</t>
+  </si>
+  <si>
+    <t>p_w152597636</t>
+  </si>
+  <si>
+    <t>e_w152597636*</t>
+  </si>
+  <si>
+    <t>p_w153548074</t>
+  </si>
+  <si>
+    <t>e_w153548074*</t>
+  </si>
+  <si>
+    <t>p_w153548156</t>
+  </si>
+  <si>
+    <t>e_w153548156*</t>
+  </si>
+  <si>
+    <t>p_w153772895</t>
+  </si>
+  <si>
+    <t>e_w153772895*</t>
+  </si>
+  <si>
+    <t>p_w155158689</t>
+  </si>
+  <si>
+    <t>e_w155158689*</t>
+  </si>
+  <si>
+    <t>p_w155590373</t>
+  </si>
+  <si>
+    <t>e_w155590373*</t>
+  </si>
+  <si>
+    <t>p_w155791516</t>
+  </si>
+  <si>
+    <t>e_w155791516*</t>
+  </si>
+  <si>
+    <t>p_w155976563</t>
+  </si>
+  <si>
+    <t>e_w155976563*</t>
+  </si>
+  <si>
+    <t>p_w155976582</t>
+  </si>
+  <si>
+    <t>e_w155976582*</t>
+  </si>
+  <si>
+    <t>p_w156001963</t>
+  </si>
+  <si>
+    <t>e_w156001963*</t>
+  </si>
+  <si>
+    <t>p_w156001981</t>
+  </si>
+  <si>
+    <t>e_w156001981*</t>
+  </si>
+  <si>
+    <t>p_w157666416</t>
+  </si>
+  <si>
+    <t>e_w157666416*</t>
+  </si>
+  <si>
+    <t>p_w157912118</t>
+  </si>
+  <si>
+    <t>e_w157912118*</t>
+  </si>
+  <si>
+    <t>p_w158599954</t>
+  </si>
+  <si>
+    <t>e_w158599954*</t>
+  </si>
+  <si>
+    <t>p_w158652469</t>
+  </si>
+  <si>
+    <t>e_w158652469*</t>
+  </si>
+  <si>
+    <t>p_w158739183</t>
+  </si>
+  <si>
+    <t>e_w158739183*</t>
+  </si>
+  <si>
+    <t>p_w159158469</t>
+  </si>
+  <si>
+    <t>e_w159158469*</t>
+  </si>
+  <si>
+    <t>p_w159821869</t>
+  </si>
+  <si>
+    <t>e_w159821869*</t>
+  </si>
+  <si>
+    <t>p_w161867064</t>
+  </si>
+  <si>
+    <t>e_w161867064*</t>
+  </si>
+  <si>
+    <t>p_w162066055</t>
+  </si>
+  <si>
+    <t>e_w162066055*</t>
+  </si>
+  <si>
+    <t>p_w162066058</t>
+  </si>
+  <si>
+    <t>e_w162066058*</t>
+  </si>
+  <si>
+    <t>p_w162828577</t>
+  </si>
+  <si>
+    <t>e_w162828577*</t>
+  </si>
+  <si>
+    <t>p_w162960205</t>
+  </si>
+  <si>
+    <t>e_w162960205*</t>
+  </si>
+  <si>
+    <t>p_w163056522</t>
+  </si>
+  <si>
+    <t>e_w163056522*</t>
+  </si>
+  <si>
+    <t>p_w163056526</t>
+  </si>
+  <si>
+    <t>e_w163056526*</t>
+  </si>
+  <si>
+    <t>p_w163058980</t>
+  </si>
+  <si>
+    <t>e_w163058980*</t>
+  </si>
+  <si>
+    <t>p_w163789376</t>
+  </si>
+  <si>
+    <t>e_w163789376*</t>
+  </si>
+  <si>
+    <t>p_w163958919</t>
+  </si>
+  <si>
+    <t>e_w163958919*</t>
+  </si>
+  <si>
+    <t>p_w163958920</t>
+  </si>
+  <si>
+    <t>e_w163958920*</t>
+  </si>
+  <si>
+    <t>p_w166196787</t>
+  </si>
+  <si>
+    <t>e_w166196787*</t>
+  </si>
+  <si>
+    <t>p_w171270810</t>
+  </si>
+  <si>
+    <t>e_w171270810*</t>
+  </si>
+  <si>
+    <t>p_w172302572</t>
+  </si>
+  <si>
+    <t>e_w172302572*</t>
+  </si>
+  <si>
+    <t>p_w172705586</t>
+  </si>
+  <si>
+    <t>e_w172705586*</t>
+  </si>
+  <si>
+    <t>p_w181125039</t>
+  </si>
+  <si>
+    <t>e_w181125039*</t>
+  </si>
+  <si>
+    <t>p_w185576620</t>
+  </si>
+  <si>
+    <t>e_w185576620*</t>
+  </si>
+  <si>
+    <t>p_w189137043</t>
+  </si>
+  <si>
+    <t>e_w189137043*</t>
+  </si>
+  <si>
+    <t>p_w189612607</t>
+  </si>
+  <si>
+    <t>e_w189612607*</t>
+  </si>
+  <si>
+    <t>p_w194186027</t>
+  </si>
+  <si>
+    <t>e_w194186027*</t>
+  </si>
+  <si>
+    <t>p_w199675964</t>
+  </si>
+  <si>
+    <t>e_w199675964*</t>
+  </si>
+  <si>
+    <t>p_w199676823</t>
+  </si>
+  <si>
+    <t>e_w199676823*</t>
+  </si>
+  <si>
+    <t>p_w202178573</t>
+  </si>
+  <si>
+    <t>e_w202178573*</t>
+  </si>
+  <si>
+    <t>p_w202179060</t>
+  </si>
+  <si>
+    <t>e_w202179060*</t>
+  </si>
+  <si>
+    <t>p_w202271565</t>
+  </si>
+  <si>
+    <t>e_w202271565*</t>
+  </si>
+  <si>
+    <t>p_w202272734</t>
+  </si>
+  <si>
+    <t>e_w202272734*</t>
+  </si>
+  <si>
+    <t>p_w202711181</t>
+  </si>
+  <si>
+    <t>e_w202711181*</t>
+  </si>
+  <si>
+    <t>p_w202772821</t>
+  </si>
+  <si>
+    <t>e_w202772821*</t>
+  </si>
+  <si>
+    <t>p_w203225567</t>
+  </si>
+  <si>
+    <t>e_w203225567*</t>
+  </si>
+  <si>
+    <t>p_w203468251</t>
+  </si>
+  <si>
+    <t>e_w203468251*</t>
+  </si>
+  <si>
+    <t>p_w205597560</t>
+  </si>
+  <si>
+    <t>e_w205597560*</t>
+  </si>
+  <si>
+    <t>p_w207383904</t>
+  </si>
+  <si>
+    <t>e_w207383904*</t>
+  </si>
+  <si>
+    <t>p_w208398923</t>
+  </si>
+  <si>
+    <t>e_w208398923*</t>
+  </si>
+  <si>
+    <t>p_w209982720</t>
+  </si>
+  <si>
+    <t>e_w209982720*</t>
+  </si>
+  <si>
+    <t>p_w211180338</t>
+  </si>
+  <si>
+    <t>e_w211180338*</t>
+  </si>
+  <si>
+    <t>p_w214294769</t>
+  </si>
+  <si>
+    <t>e_w214294769*</t>
+  </si>
+  <si>
+    <t>p_w222427976</t>
+  </si>
+  <si>
+    <t>e_w222427976*</t>
+  </si>
+  <si>
+    <t>p_w236661269</t>
+  </si>
+  <si>
+    <t>e_w236661269*</t>
+  </si>
+  <si>
+    <t>p_w255011550</t>
+  </si>
+  <si>
+    <t>e_w255011550*</t>
+  </si>
+  <si>
+    <t>p_w257351439</t>
+  </si>
+  <si>
+    <t>e_w257351439*</t>
+  </si>
+  <si>
+    <t>p_w288149641</t>
+  </si>
+  <si>
+    <t>e_w288149641*</t>
+  </si>
+  <si>
+    <t>p_w289178949</t>
+  </si>
+  <si>
+    <t>e_w289178949*</t>
+  </si>
+  <si>
+    <t>p_w296141722</t>
+  </si>
+  <si>
+    <t>e_w296141722*</t>
+  </si>
+  <si>
+    <t>p_w303915533</t>
+  </si>
+  <si>
+    <t>e_w303915533*</t>
+  </si>
+  <si>
+    <t>p_w303965869</t>
+  </si>
+  <si>
+    <t>e_w303965869*</t>
+  </si>
+  <si>
+    <t>p_w309371152</t>
+  </si>
+  <si>
+    <t>e_w309371152*</t>
+  </si>
+  <si>
+    <t>p_w309371153</t>
+  </si>
+  <si>
+    <t>e_w309371153*</t>
+  </si>
+  <si>
+    <t>p_w321724202</t>
+  </si>
+  <si>
+    <t>e_w321724202*</t>
+  </si>
+  <si>
+    <t>p_w335012182</t>
+  </si>
+  <si>
+    <t>e_w335012182*</t>
+  </si>
+  <si>
+    <t>p_w338453112</t>
+  </si>
+  <si>
+    <t>e_w338453112*</t>
+  </si>
+  <si>
+    <t>p_w338753171</t>
+  </si>
+  <si>
+    <t>e_w338753171*</t>
+  </si>
+  <si>
+    <t>p_w338760116</t>
+  </si>
+  <si>
+    <t>e_w338760116*</t>
+  </si>
+  <si>
+    <t>p_w338790588</t>
+  </si>
+  <si>
+    <t>e_w338790588*</t>
+  </si>
+  <si>
+    <t>p_w338792752</t>
+  </si>
+  <si>
+    <t>e_w338792752*</t>
+  </si>
+  <si>
+    <t>p_w338795626</t>
+  </si>
+  <si>
+    <t>e_w338795626*</t>
+  </si>
+  <si>
+    <t>p_w338948868</t>
+  </si>
+  <si>
+    <t>e_w338948868*</t>
+  </si>
+  <si>
+    <t>p_w338969614</t>
+  </si>
+  <si>
+    <t>e_w338969614*</t>
+  </si>
+  <si>
+    <t>p_w339104227</t>
+  </si>
+  <si>
+    <t>e_w339104227*</t>
+  </si>
+  <si>
+    <t>p_w339703159</t>
+  </si>
+  <si>
+    <t>e_w339703159*</t>
+  </si>
+  <si>
+    <t>p_w339706878</t>
+  </si>
+  <si>
+    <t>e_w339706878*</t>
+  </si>
+  <si>
+    <t>p_w339706879</t>
+  </si>
+  <si>
+    <t>e_w339706879*</t>
+  </si>
+  <si>
+    <t>p_w339706880</t>
+  </si>
+  <si>
+    <t>e_w339706880*</t>
+  </si>
+  <si>
+    <t>p_w34157795</t>
+  </si>
+  <si>
+    <t>e_w34157795*</t>
+  </si>
+  <si>
+    <t>p_w348500306</t>
+  </si>
+  <si>
+    <t>e_w348500306*</t>
+  </si>
+  <si>
+    <t>p_w350356755</t>
+  </si>
+  <si>
+    <t>e_w350356755*</t>
+  </si>
+  <si>
+    <t>p_w354923815</t>
+  </si>
+  <si>
+    <t>e_w354923815*</t>
+  </si>
+  <si>
+    <t>p_w35680992</t>
+  </si>
+  <si>
+    <t>e_w35680992*</t>
+  </si>
+  <si>
+    <t>p_w363469921</t>
+  </si>
+  <si>
+    <t>e_w363469921*</t>
+  </si>
+  <si>
+    <t>p_w36873258</t>
+  </si>
+  <si>
+    <t>e_w36873258*</t>
+  </si>
+  <si>
+    <t>p_w370531649</t>
+  </si>
+  <si>
+    <t>e_w370531649*</t>
+  </si>
+  <si>
+    <t>p_w375892272</t>
+  </si>
+  <si>
+    <t>e_w375892272*</t>
+  </si>
+  <si>
+    <t>p_w375907988</t>
+  </si>
+  <si>
+    <t>e_w375907988*</t>
+  </si>
+  <si>
+    <t>p_w375908008</t>
+  </si>
+  <si>
+    <t>e_w375908008*</t>
+  </si>
+  <si>
+    <t>p_w375922075</t>
+  </si>
+  <si>
+    <t>e_w375922075*</t>
+  </si>
+  <si>
+    <t>p_w375922076</t>
+  </si>
+  <si>
+    <t>e_w375922076*</t>
+  </si>
+  <si>
+    <t>p_w376351180</t>
+  </si>
+  <si>
+    <t>e_w376351180*</t>
+  </si>
+  <si>
+    <t>p_w376502663</t>
+  </si>
+  <si>
+    <t>e_w376502663*</t>
+  </si>
+  <si>
+    <t>p_w376502734</t>
+  </si>
+  <si>
+    <t>e_w376502734*</t>
+  </si>
+  <si>
+    <t>p_w376642649</t>
+  </si>
+  <si>
+    <t>e_w376642649*</t>
+  </si>
+  <si>
+    <t>p_w376952592</t>
+  </si>
+  <si>
+    <t>e_w376952592*</t>
+  </si>
+  <si>
+    <t>p_w376952616</t>
+  </si>
+  <si>
+    <t>e_w376952616*</t>
+  </si>
+  <si>
+    <t>p_w377444648</t>
+  </si>
+  <si>
+    <t>e_w377444648*</t>
+  </si>
+  <si>
+    <t>p_w377444657</t>
+  </si>
+  <si>
+    <t>e_w377444657*</t>
+  </si>
+  <si>
+    <t>p_w377588184</t>
+  </si>
+  <si>
+    <t>e_w377588184*</t>
+  </si>
+  <si>
+    <t>p_w377588185</t>
+  </si>
+  <si>
+    <t>e_w377588185*</t>
+  </si>
+  <si>
+    <t>p_w377588191</t>
+  </si>
+  <si>
+    <t>e_w377588191*</t>
+  </si>
+  <si>
+    <t>p_w377588196</t>
+  </si>
+  <si>
+    <t>e_w377588196*</t>
+  </si>
+  <si>
+    <t>p_w377830944</t>
+  </si>
+  <si>
+    <t>e_w377830944*</t>
+  </si>
+  <si>
+    <t>p_w377832777</t>
+  </si>
+  <si>
+    <t>e_w377832777*</t>
+  </si>
+  <si>
+    <t>p_w392068532</t>
+  </si>
+  <si>
+    <t>e_w392068532*</t>
+  </si>
+  <si>
+    <t>p_w39255054</t>
+  </si>
+  <si>
+    <t>e_w39255054*</t>
+  </si>
+  <si>
+    <t>p_w40634284</t>
+  </si>
+  <si>
+    <t>e_w40634284*</t>
+  </si>
+  <si>
+    <t>p_w409439916</t>
+  </si>
+  <si>
+    <t>e_w409439916*</t>
+  </si>
+  <si>
+    <t>p_w409768426</t>
+  </si>
+  <si>
+    <t>e_w409768426*</t>
+  </si>
+  <si>
+    <t>p_w411026199</t>
+  </si>
+  <si>
+    <t>e_w411026199*</t>
+  </si>
+  <si>
+    <t>p_w412967421</t>
+  </si>
+  <si>
+    <t>e_w412967421*</t>
+  </si>
+  <si>
+    <t>p_w412967424</t>
+  </si>
+  <si>
+    <t>e_w412967424*</t>
+  </si>
+  <si>
+    <t>p_w41360305</t>
+  </si>
+  <si>
+    <t>e_w41360305*</t>
+  </si>
+  <si>
+    <t>p_w414663585</t>
+  </si>
+  <si>
+    <t>e_w414663585*</t>
+  </si>
+  <si>
+    <t>p_w416679116</t>
+  </si>
+  <si>
+    <t>e_w416679116*</t>
+  </si>
+  <si>
+    <t>p_w416679117</t>
+  </si>
+  <si>
+    <t>e_w416679117*</t>
+  </si>
+  <si>
+    <t>p_w416989699</t>
+  </si>
+  <si>
+    <t>e_w416989699*</t>
+  </si>
+  <si>
+    <t>p_w418565263</t>
+  </si>
+  <si>
+    <t>e_w418565263*</t>
+  </si>
+  <si>
+    <t>p_w418565264</t>
+  </si>
+  <si>
+    <t>e_w418565264*</t>
+  </si>
+  <si>
+    <t>p_w418902800</t>
+  </si>
+  <si>
+    <t>e_w418902800*</t>
+  </si>
+  <si>
+    <t>p_w41892273</t>
+  </si>
+  <si>
+    <t>e_w41892273*</t>
+  </si>
+  <si>
+    <t>p_w419423700</t>
+  </si>
+  <si>
+    <t>e_w419423700*</t>
+  </si>
+  <si>
+    <t>p_w419423704</t>
+  </si>
+  <si>
+    <t>e_w419423704*</t>
+  </si>
+  <si>
+    <t>p_w419423705</t>
+  </si>
+  <si>
+    <t>e_w419423705*</t>
+  </si>
+  <si>
+    <t>p_w420698910</t>
+  </si>
+  <si>
+    <t>e_w420698910*</t>
+  </si>
+  <si>
+    <t>p_w421827453</t>
+  </si>
+  <si>
+    <t>e_w421827453*</t>
+  </si>
+  <si>
+    <t>p_w42206116</t>
+  </si>
+  <si>
+    <t>e_w42206116*</t>
+  </si>
+  <si>
+    <t>p_w42862642</t>
+  </si>
+  <si>
+    <t>e_w42862642*</t>
+  </si>
+  <si>
+    <t>p_w432729521</t>
+  </si>
+  <si>
+    <t>e_w432729521*</t>
+  </si>
+  <si>
+    <t>p_w432871051</t>
+  </si>
+  <si>
+    <t>e_w432871051*</t>
+  </si>
+  <si>
+    <t>p_w432871052</t>
+  </si>
+  <si>
+    <t>e_w432871052*</t>
+  </si>
+  <si>
+    <t>p_w435429368</t>
+  </si>
+  <si>
+    <t>e_w435429368*</t>
+  </si>
+  <si>
+    <t>p_w435433908</t>
+  </si>
+  <si>
+    <t>e_w435433908*</t>
+  </si>
+  <si>
+    <t>p_w435433909</t>
+  </si>
+  <si>
+    <t>e_w435433909*</t>
+  </si>
+  <si>
+    <t>p_w436352445</t>
+  </si>
+  <si>
+    <t>e_w436352445*</t>
+  </si>
+  <si>
+    <t>p_w448777455</t>
+  </si>
+  <si>
+    <t>e_w448777455*</t>
+  </si>
+  <si>
+    <t>p_w449694943</t>
+  </si>
+  <si>
+    <t>e_w449694943*</t>
+  </si>
+  <si>
+    <t>p_w491424937</t>
+  </si>
+  <si>
+    <t>e_w491424937*</t>
+  </si>
+  <si>
+    <t>p_w495354824</t>
+  </si>
+  <si>
+    <t>e_w495354824*</t>
+  </si>
+  <si>
+    <t>p_w504195617</t>
+  </si>
+  <si>
+    <t>e_w504195617*</t>
+  </si>
+  <si>
+    <t>p_w50589203</t>
+  </si>
+  <si>
+    <t>e_w50589203*</t>
+  </si>
+  <si>
+    <t>p_w507064051</t>
+  </si>
+  <si>
+    <t>e_w507064051*</t>
+  </si>
+  <si>
+    <t>p_w527885953</t>
+  </si>
+  <si>
+    <t>e_w527885953*</t>
+  </si>
+  <si>
+    <t>p_w53635045</t>
+  </si>
+  <si>
+    <t>e_w53635045*</t>
+  </si>
+  <si>
+    <t>p_w56984450</t>
+  </si>
+  <si>
+    <t>e_w56984450*</t>
+  </si>
+  <si>
+    <t>p_w57380344</t>
+  </si>
+  <si>
+    <t>e_w57380344*</t>
+  </si>
+  <si>
+    <t>p_w57384507</t>
+  </si>
+  <si>
+    <t>e_w57384507*</t>
+  </si>
+  <si>
+    <t>p_w57403755</t>
+  </si>
+  <si>
+    <t>e_w57403755*</t>
+  </si>
+  <si>
+    <t>p_w577074555</t>
+  </si>
+  <si>
+    <t>e_w577074555*</t>
+  </si>
+  <si>
+    <t>p_w57736541</t>
+  </si>
+  <si>
+    <t>e_w57736541*</t>
+  </si>
+  <si>
+    <t>p_w57736553</t>
+  </si>
+  <si>
+    <t>e_w57736553*</t>
+  </si>
+  <si>
+    <t>p_w58440884</t>
+  </si>
+  <si>
+    <t>e_w58440884*</t>
+  </si>
+  <si>
+    <t>p_w58516664</t>
+  </si>
+  <si>
+    <t>e_w58516664*</t>
+  </si>
+  <si>
+    <t>p_w58931857</t>
+  </si>
+  <si>
+    <t>e_w58931857*</t>
+  </si>
+  <si>
+    <t>p_w58992998</t>
+  </si>
+  <si>
+    <t>e_w58992998*</t>
+  </si>
+  <si>
+    <t>p_w59026315</t>
+  </si>
+  <si>
+    <t>e_w59026315*</t>
+  </si>
+  <si>
+    <t>p_w590522266</t>
+  </si>
+  <si>
+    <t>e_w590522266*</t>
+  </si>
+  <si>
+    <t>p_w591027058</t>
+  </si>
+  <si>
+    <t>e_w591027058*</t>
+  </si>
+  <si>
+    <t>p_w59153311</t>
+  </si>
+  <si>
+    <t>e_w59153311*</t>
+  </si>
+  <si>
+    <t>p_w59219335</t>
+  </si>
+  <si>
+    <t>e_w59219335*</t>
+  </si>
+  <si>
+    <t>p_w59366523</t>
+  </si>
+  <si>
+    <t>e_w59366523*</t>
+  </si>
+  <si>
+    <t>p_w59462263</t>
+  </si>
+  <si>
+    <t>e_w59462263*</t>
+  </si>
+  <si>
+    <t>p_w59462715</t>
+  </si>
+  <si>
+    <t>e_w59462715*</t>
+  </si>
+  <si>
+    <t>p_w59556712</t>
+  </si>
+  <si>
+    <t>e_w59556712*</t>
+  </si>
+  <si>
+    <t>p_w59604857</t>
+  </si>
+  <si>
+    <t>e_w59604857*</t>
+  </si>
+  <si>
+    <t>p_w59620552</t>
+  </si>
+  <si>
+    <t>e_w59620552*</t>
+  </si>
+  <si>
+    <t>p_w59629638</t>
+  </si>
+  <si>
+    <t>e_w59629638*</t>
+  </si>
+  <si>
+    <t>p_w60235685</t>
+  </si>
+  <si>
+    <t>e_w60235685*</t>
+  </si>
+  <si>
+    <t>p_w60616350</t>
+  </si>
+  <si>
+    <t>e_w60616350*</t>
+  </si>
+  <si>
+    <t>p_w60725875</t>
+  </si>
+  <si>
+    <t>e_w60725875*</t>
+  </si>
+  <si>
+    <t>p_w60888331</t>
+  </si>
+  <si>
+    <t>e_w60888331*</t>
+  </si>
+  <si>
+    <t>p_w60913666</t>
+  </si>
+  <si>
+    <t>e_w60913666*</t>
+  </si>
+  <si>
+    <t>p_w60919237</t>
+  </si>
+  <si>
+    <t>e_w60919237*</t>
+  </si>
+  <si>
+    <t>p_w61038773</t>
+  </si>
+  <si>
+    <t>e_w61038773*</t>
+  </si>
+  <si>
+    <t>p_w61157826</t>
+  </si>
+  <si>
+    <t>e_w61157826*</t>
+  </si>
+  <si>
+    <t>p_w61463169</t>
+  </si>
+  <si>
+    <t>e_w61463169*</t>
+  </si>
+  <si>
+    <t>p_w61484190</t>
+  </si>
+  <si>
+    <t>e_w61484190*</t>
+  </si>
+  <si>
+    <t>p_w61626687</t>
+  </si>
+  <si>
+    <t>e_w61626687*</t>
+  </si>
+  <si>
+    <t>p_w61650514</t>
+  </si>
+  <si>
+    <t>e_w61650514*</t>
+  </si>
+  <si>
+    <t>p_w61712456</t>
+  </si>
+  <si>
+    <t>e_w61712456*</t>
+  </si>
+  <si>
+    <t>p_w62326314</t>
+  </si>
+  <si>
+    <t>e_w62326314*</t>
+  </si>
+  <si>
+    <t>p_w64200868</t>
+  </si>
+  <si>
+    <t>e_w64200868*</t>
+  </si>
+  <si>
+    <t>p_w64942789</t>
+  </si>
+  <si>
+    <t>e_w64942789*</t>
+  </si>
+  <si>
+    <t>p_w653230504</t>
+  </si>
+  <si>
+    <t>e_w653230504*</t>
+  </si>
+  <si>
+    <t>p_w66872608</t>
+  </si>
+  <si>
+    <t>e_w66872608*</t>
+  </si>
+  <si>
+    <t>p_w67461115</t>
+  </si>
+  <si>
+    <t>e_w67461115*</t>
+  </si>
+  <si>
+    <t>p_w68299044</t>
+  </si>
+  <si>
+    <t>e_w68299044*</t>
+  </si>
+  <si>
+    <t>p_w72466334</t>
+  </si>
+  <si>
+    <t>e_w72466334*</t>
+  </si>
+  <si>
+    <t>p_w72475426</t>
+  </si>
+  <si>
+    <t>e_w72475426*</t>
+  </si>
+  <si>
+    <t>p_w72570378</t>
+  </si>
+  <si>
+    <t>e_w72570378*</t>
+  </si>
+  <si>
+    <t>p_w72570474</t>
+  </si>
+  <si>
+    <t>e_w72570474*</t>
+  </si>
+  <si>
+    <t>p_w72581705</t>
+  </si>
+  <si>
+    <t>e_w72581705*</t>
+  </si>
+  <si>
+    <t>p_w74210017</t>
+  </si>
+  <si>
+    <t>e_w74210017*</t>
+  </si>
+  <si>
+    <t>p_w74359510</t>
+  </si>
+  <si>
+    <t>e_w74359510*</t>
+  </si>
+  <si>
+    <t>p_w74677138</t>
+  </si>
+  <si>
+    <t>e_w74677138*</t>
+  </si>
+  <si>
+    <t>p_w74943205</t>
+  </si>
+  <si>
+    <t>e_w74943205*</t>
+  </si>
+  <si>
+    <t>p_w75378894</t>
+  </si>
+  <si>
+    <t>e_w75378894*</t>
+  </si>
+  <si>
+    <t>p_w75602396</t>
+  </si>
+  <si>
+    <t>e_w75602396*</t>
+  </si>
+  <si>
+    <t>p_w75947556</t>
+  </si>
+  <si>
+    <t>e_w75947556*</t>
+  </si>
+  <si>
+    <t>p_w76705565</t>
+  </si>
+  <si>
+    <t>e_w76705565*</t>
+  </si>
+  <si>
+    <t>p_w76709660</t>
+  </si>
+  <si>
+    <t>e_w76709660*</t>
+  </si>
+  <si>
+    <t>p_w772234863</t>
+  </si>
+  <si>
+    <t>e_w772234863*</t>
+  </si>
+  <si>
+    <t>p_w78066534</t>
+  </si>
+  <si>
+    <t>e_w78066534*</t>
+  </si>
+  <si>
+    <t>p_w79879290</t>
+  </si>
+  <si>
+    <t>e_w79879290*</t>
+  </si>
+  <si>
+    <t>p_w80442466</t>
+  </si>
+  <si>
+    <t>e_w80442466*</t>
+  </si>
+  <si>
+    <t>p_w80517630</t>
+  </si>
+  <si>
+    <t>e_w80517630*</t>
+  </si>
+  <si>
+    <t>p_w81929591</t>
+  </si>
+  <si>
+    <t>e_w81929591*</t>
+  </si>
+  <si>
+    <t>p_w81931074</t>
+  </si>
+  <si>
+    <t>e_w81931074*</t>
+  </si>
+  <si>
+    <t>p_w81938081</t>
+  </si>
+  <si>
+    <t>e_w81938081*</t>
+  </si>
+  <si>
+    <t>p_w82078641</t>
+  </si>
+  <si>
+    <t>e_w82078641*</t>
+  </si>
+  <si>
+    <t>p_w82083756</t>
+  </si>
+  <si>
+    <t>e_w82083756*</t>
+  </si>
+  <si>
+    <t>p_w82084013</t>
+  </si>
+  <si>
+    <t>e_w82084013*</t>
+  </si>
+  <si>
+    <t>p_w82084019</t>
+  </si>
+  <si>
+    <t>e_w82084019*</t>
+  </si>
+  <si>
+    <t>p_w82651599</t>
+  </si>
+  <si>
+    <t>e_w82651599*</t>
+  </si>
+  <si>
+    <t>p_w82759380</t>
+  </si>
+  <si>
+    <t>e_w82759380*</t>
+  </si>
+  <si>
+    <t>p_w82762493</t>
+  </si>
+  <si>
+    <t>e_w82762493*</t>
+  </si>
+  <si>
+    <t>p_w82767145</t>
+  </si>
+  <si>
+    <t>e_w82767145*</t>
+  </si>
+  <si>
+    <t>p_w82793962</t>
+  </si>
+  <si>
+    <t>e_w82793962*</t>
+  </si>
+  <si>
+    <t>p_w83058212</t>
+  </si>
+  <si>
+    <t>e_w83058212*</t>
+  </si>
+  <si>
+    <t>p_w83805453</t>
+  </si>
+  <si>
+    <t>e_w83805453*</t>
+  </si>
+  <si>
+    <t>p_w83872215</t>
+  </si>
+  <si>
+    <t>e_w83872215*</t>
+  </si>
+  <si>
+    <t>p_w84277460</t>
+  </si>
+  <si>
+    <t>e_w84277460*</t>
+  </si>
+  <si>
+    <t>p_w84301904</t>
+  </si>
+  <si>
+    <t>e_w84301904*</t>
+  </si>
+  <si>
+    <t>p_w84696559</t>
+  </si>
+  <si>
+    <t>e_w84696559*</t>
+  </si>
+  <si>
+    <t>p_w84963374</t>
+  </si>
+  <si>
+    <t>e_w84963374*</t>
+  </si>
+  <si>
+    <t>p_w85196861</t>
+  </si>
+  <si>
+    <t>e_w85196861*</t>
+  </si>
+  <si>
+    <t>p_w85297730</t>
+  </si>
+  <si>
+    <t>e_w85297730*</t>
+  </si>
+  <si>
+    <t>p_w88361192</t>
+  </si>
+  <si>
+    <t>e_w88361192*</t>
+  </si>
+  <si>
+    <t>p_w891280888</t>
+  </si>
+  <si>
+    <t>e_w891280888*</t>
+  </si>
+  <si>
+    <t>p_w93038661</t>
+  </si>
+  <si>
+    <t>e_w93038661*</t>
+  </si>
+  <si>
+    <t>p_w93315059</t>
+  </si>
+  <si>
+    <t>e_w93315059*</t>
+  </si>
+  <si>
+    <t>p_w93850768</t>
+  </si>
+  <si>
+    <t>e_w93850768*</t>
+  </si>
+  <si>
+    <t>p_w93860115</t>
+  </si>
+  <si>
+    <t>e_w93860115*</t>
+  </si>
+  <si>
+    <t>p_w944660251</t>
+  </si>
+  <si>
+    <t>e_w944660251*</t>
+  </si>
+  <si>
+    <t>p_w95466193</t>
+  </si>
+  <si>
+    <t>e_w95466193*</t>
+  </si>
+  <si>
+    <t>p_w95466377</t>
+  </si>
+  <si>
+    <t>e_w95466377*</t>
+  </si>
+  <si>
+    <t>p_w95840602</t>
+  </si>
+  <si>
+    <t>e_w95840602*</t>
+  </si>
+  <si>
+    <t>p_w96190189</t>
+  </si>
+  <si>
+    <t>e_w96190189*</t>
+  </si>
+  <si>
+    <t>p_w96658563</t>
+  </si>
+  <si>
+    <t>e_w96658563*</t>
+  </si>
+  <si>
+    <t>p_w96727258</t>
+  </si>
+  <si>
+    <t>e_w96727258*</t>
+  </si>
+  <si>
+    <t>p_w98421779</t>
+  </si>
+  <si>
+    <t>e_w98421779*</t>
+  </si>
+  <si>
+    <t>p_w98427149</t>
+  </si>
+  <si>
+    <t>e_w98427149*</t>
+  </si>
+  <si>
+    <t>p_w98427407</t>
+  </si>
+  <si>
+    <t>e_w98427407*</t>
+  </si>
+  <si>
+    <t>p_w98638424</t>
+  </si>
+  <si>
+    <t>e_w98638424*</t>
+  </si>
+  <si>
+    <t>p_w98787157</t>
+  </si>
+  <si>
+    <t>e_w98787157*</t>
+  </si>
+  <si>
+    <t>p_w988370787</t>
+  </si>
+  <si>
+    <t>e_w988370787*</t>
+  </si>
+  <si>
+    <t>p_w988654143</t>
+  </si>
+  <si>
+    <t>e_w988654143*</t>
+  </si>
+  <si>
+    <t>p_w98900549</t>
+  </si>
+  <si>
+    <t>e_w98900549*</t>
+  </si>
+  <si>
+    <t>p_w98901130</t>
+  </si>
+  <si>
+    <t>e_w98901130*</t>
+  </si>
+  <si>
+    <t>p_w98902899</t>
+  </si>
+  <si>
+    <t>e_w98902899*</t>
+  </si>
+  <si>
+    <t>p_w99694910</t>
+  </si>
+  <si>
+    <t>e_w99694910*</t>
+  </si>
+  <si>
+    <t>p_w99826025</t>
+  </si>
+  <si>
+    <t>e_w99826025*</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,16 +3527,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -393,17 +3607,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -421,6 +3672,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E221A4B-DAFB-699E-CD07-62A4C7C6FE7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,10 +4476,4264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523A9AC-7A9F-4A90-AD7E-183CC1A116FA}">
+  <dimension ref="A1:H529"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B201" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B202" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B203" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B204" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B205" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B206" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B207" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B208" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B209" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B210" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B211" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B212" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B213" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B214" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B215" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B216" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B217" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B218" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B219" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B220" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B221" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B222" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B223" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B224" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B225" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B226" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B227" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B228" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B229" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B230" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B231" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B232" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B233" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B234" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B235" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B236" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B237" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B238" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B239" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B240" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B241" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B242" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B243" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B244" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B245" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B246" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B247" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B248" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B249" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B250" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B251" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B252" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B253" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B254" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B255" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B256" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B257" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B258" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B259" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B260" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B261" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B262" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B263" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B264" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B265" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B266" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B267" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B268" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B269" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B270" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B271" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B272" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B273" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B274" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B275" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B276" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B277" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B278" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B279" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B280" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B281" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B282" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B283" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B284" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B285" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B286" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B287" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B288" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B289" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B290" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B291" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B292" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B293" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B294" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B295" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B296" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B297" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B298" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B299" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B300" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B301" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B302" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B303" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B304" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B305" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B306" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B307" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B308" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B309" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B310" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B311" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B312" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B313" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B314" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B315" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B316" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B317" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B318" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B319" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B320" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B321" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B322" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B323" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B324" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B325" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B326" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B327" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B328" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B329" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B330" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B331" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B332" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B333" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B334" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B335" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B336" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B337" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B338" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B339" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B340" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B341" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B342" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B343" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B344" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B345" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B346" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B347" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B348" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B349" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B350" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B351" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B352" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B353" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B354" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B355" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B356" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B357" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B358" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B359" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B360" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B361" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B362" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B363" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B364" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B365" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B366" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B367" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B368" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B369" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B370" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B371" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B372" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B373" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B374" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B375" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B376" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B377" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B378" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B379" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B380" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B381" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B382" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B383" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B384" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B385" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B386" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B387" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B388" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B389" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B390" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B391" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B392" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B393" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B394" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B395" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B396" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B397" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B398" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B399" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B400" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B401" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B402" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B403" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B404" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B405" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B406" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B407" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B408" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B409" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B410" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B411" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B412" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B413" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B414" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B415" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B416" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B417" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B418" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B419" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B420" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B421" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B422" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B423" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B424" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B425" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B426" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B427" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B428" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B429" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B430" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B431" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B432" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B433" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B434" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B435" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B436" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B437" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B438" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B439" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B440" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B441" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B442" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B443" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B444" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B445" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B446" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B447" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B448" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B449" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B450" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B451" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B452" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B453" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B454" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B455" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B456" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B457" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C457" s="8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B458" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B459" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B460" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B461" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B462" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B463" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B464" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B465" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B466" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B467" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B468" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B469" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B470" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B471" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B472" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B473" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B474" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B475" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B476" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B477" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B478" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B479" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B480" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B481" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B482" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B483" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B484" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B485" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B486" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B487" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B488" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B489" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B490" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B491" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B492" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B493" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B494" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B495" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B496" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B497" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B498" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B499" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C499" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B500" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B501" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C501" s="8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B502" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B503" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C503" s="8" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B504" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B505" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C505" s="8" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B506" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B507" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C507" s="8" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B508" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B509" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C509" s="8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B510" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B511" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C511" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B512" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B513" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C513" s="8" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B514" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B515" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C515" s="8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B516" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B517" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C517" s="8" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B518" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B519" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B520" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B521" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C521" s="8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B522" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B523" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C523" s="8" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B524" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B525" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C525" s="8" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B526" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B527" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C527" s="8" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B528" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B529" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C529" s="8" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EEFF0B-FCA0-40C1-B2BF-53F821C81F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FB3B8-249A-4C72-AB28-E587F1EC4AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>Transformers Dn</t>
   </si>
   <si>
-    <t>~tfm_pset</t>
-  </si>
-  <si>
     <t>setname</t>
   </si>
   <si>
@@ -3497,6 +3494,9 @@
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~tfm_psets</t>
   </si>
 </sst>
 </file>
@@ -3648,13 +3648,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -4479,7 +4479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523A9AC-7A9F-4A90-AD7E-183CC1A116FA}">
   <dimension ref="A1:H529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4488,4236 +4490,4236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="7" t="s">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="8" t="s">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="7" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="8" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="7" t="s">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="8" t="s">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="7" t="s">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="7" t="s">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="8" t="s">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="8" t="s">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="7" t="s">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="8" t="s">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="7" t="s">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="7" t="s">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="8" t="s">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="7" t="s">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="8" t="s">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="7" t="s">
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="8" t="s">
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="7" t="s">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="8" t="s">
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="7" t="s">
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="8" t="s">
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="7" t="s">
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="8" t="s">
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="7" t="s">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="8" t="s">
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="7" t="s">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="8" t="s">
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="7" t="s">
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="8" t="s">
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="7" t="s">
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="8" t="s">
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="7" t="s">
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C59" s="8" t="s">
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="7" t="s">
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="8" t="s">
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C62" s="7" t="s">
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="8" t="s">
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="7" t="s">
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="8" t="s">
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="7" t="s">
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C67" s="8" t="s">
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="6" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="7" t="s">
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C69" s="8" t="s">
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C70" s="7" t="s">
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="8" t="s">
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C72" s="7" t="s">
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="8" t="s">
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="7" t="s">
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="8" t="s">
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="7" t="s">
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C77" s="8" t="s">
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C78" s="7" t="s">
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="8" t="s">
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="7" t="s">
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="8" t="s">
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="7" t="s">
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="8" t="s">
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C84" s="7" t="s">
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="8" t="s">
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="7" t="s">
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C87" s="8" t="s">
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="7" t="s">
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="8" t="s">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="7" t="s">
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C91" s="8" t="s">
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="7" t="s">
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="8" t="s">
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="7" t="s">
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" s="7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="8" t="s">
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="7" t="s">
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="8" t="s">
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="7" t="s">
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C99" s="8" t="s">
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="7" t="s">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="8" t="s">
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" s="6" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="7" t="s">
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="8" t="s">
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" s="6" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C104" s="7" t="s">
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C105" s="8" t="s">
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C106" s="7" t="s">
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C107" s="8" t="s">
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" s="6" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C108" s="7" t="s">
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C109" s="8" t="s">
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C110" s="7" t="s">
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" s="7" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C111" s="8" t="s">
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="7" t="s">
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C113" s="8" t="s">
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" s="6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C114" s="7" t="s">
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" s="7" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C115" s="8" t="s">
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" s="6" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C116" s="7" t="s">
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C117" s="8" t="s">
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="7" t="s">
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C119" s="8" t="s">
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" s="6" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C120" s="7" t="s">
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C121" s="8" t="s">
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" s="6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C122" s="7" t="s">
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" s="7" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C123" s="8" t="s">
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" s="6" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C124" s="7" t="s">
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C125" s="8" t="s">
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C126" s="7" t="s">
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C127" s="8" t="s">
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" s="6" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C128" s="7" t="s">
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C129" s="8" t="s">
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" s="6" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C130" s="7" t="s">
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C131" s="8" t="s">
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" s="6" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C132" s="7" t="s">
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C133" s="8" t="s">
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" s="6" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B134" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C134" s="7" t="s">
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C135" s="8" t="s">
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B136" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C136" s="7" t="s">
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" s="7" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B137" s="8" t="s">
+      <c r="C137" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C137" s="8" t="s">
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" s="6" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C138" s="7" t="s">
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" s="7" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C139" s="8" t="s">
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C140" s="7" t="s">
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C141" s="8" t="s">
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C142" s="7" t="s">
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C143" s="8" t="s">
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" s="6" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C144" s="7" t="s">
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C145" s="8" t="s">
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" s="6" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C146" s="7" t="s">
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C147" s="8" t="s">
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C148" s="7" t="s">
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" s="7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C149" s="8" t="s">
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" s="6" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C150" s="7" t="s">
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B151" s="8" t="s">
+      <c r="C151" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C151" s="8" t="s">
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" s="6" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B152" s="7" t="s">
+      <c r="C152" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C152" s="7" t="s">
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C153" s="8" t="s">
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" s="6" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B154" s="7" t="s">
+      <c r="C154" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C154" s="7" t="s">
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C155" s="8" t="s">
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" s="6" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B156" s="7" t="s">
+      <c r="C156" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C156" s="7" t="s">
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" s="7" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C157" s="8" t="s">
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" s="6" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B158" s="7" t="s">
+      <c r="C158" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C158" s="7" t="s">
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" s="7" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C159" s="8" t="s">
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" s="6" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C160" s="7" t="s">
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" s="7" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C161" s="8" t="s">
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" s="6" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B162" s="7" t="s">
+      <c r="C162" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C162" s="7" t="s">
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" s="7" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C163" s="8" t="s">
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" s="6" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B164" s="7" t="s">
+      <c r="C164" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C164" s="7" t="s">
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" s="7" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C165" s="8" t="s">
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" s="6" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B166" s="7" t="s">
+      <c r="C166" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C166" s="7" t="s">
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" s="7" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B167" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C167" s="8" t="s">
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" s="6" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B168" s="7" t="s">
+      <c r="C168" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C168" s="7" t="s">
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" s="7" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C169" s="8" t="s">
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" s="6" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B170" s="7" t="s">
+      <c r="C170" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C170" s="7" t="s">
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" s="7" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C171" s="8" t="s">
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" s="6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B172" s="7" t="s">
+      <c r="C172" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C172" s="7" t="s">
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" s="7" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C173" s="8" t="s">
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B174" s="7" t="s">
+      <c r="C174" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C174" s="7" t="s">
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" s="7" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B175" s="8" t="s">
+      <c r="C175" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C175" s="8" t="s">
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" s="6" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C176" s="7" t="s">
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" s="7" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B177" s="8" t="s">
+      <c r="C177" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C177" s="8" t="s">
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" s="6" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B178" s="7" t="s">
+      <c r="C178" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C178" s="7" t="s">
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" s="7" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B179" s="8" t="s">
+      <c r="C179" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C179" s="8" t="s">
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" s="6" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B180" s="7" t="s">
+      <c r="C180" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C180" s="7" t="s">
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" s="7" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B181" s="8" t="s">
+      <c r="C181" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C181" s="8" t="s">
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" s="6" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B182" s="7" t="s">
+      <c r="C182" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C182" s="7" t="s">
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" s="7" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B183" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C183" s="8" t="s">
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" s="6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B184" s="7" t="s">
+      <c r="C184" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C184" s="7" t="s">
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185" s="7" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B185" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C185" s="8" t="s">
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B186" s="7" t="s">
+      <c r="C186" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C186" s="7" t="s">
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187" s="7" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B187" s="8" t="s">
+      <c r="C187" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C187" s="8" t="s">
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188" s="6" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B188" s="7" t="s">
+      <c r="C188" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C188" s="7" t="s">
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189" s="7" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B189" s="8" t="s">
+      <c r="C189" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C189" s="8" t="s">
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" s="6" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B190" s="7" t="s">
+      <c r="C190" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C190" s="7" t="s">
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191" s="7" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B191" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C191" s="8" t="s">
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192" s="6" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B192" s="7" t="s">
+      <c r="C192" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C192" s="7" t="s">
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C193" s="8" t="s">
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" s="6" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B194" s="7" t="s">
+      <c r="C194" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C194" s="7" t="s">
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C195" s="8" t="s">
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196" s="6" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B196" s="7" t="s">
+      <c r="C196" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C196" s="7" t="s">
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197" s="7" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B197" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C197" s="8" t="s">
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198" s="6" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B198" s="7" t="s">
+      <c r="C198" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C198" s="7" t="s">
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B199" s="8" t="s">
+      <c r="C199" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C199" s="8" t="s">
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200" s="6" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B200" s="7" t="s">
+      <c r="C200" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C200" s="7" t="s">
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B201" s="7" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B201" s="8" t="s">
+      <c r="C201" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C201" s="8" t="s">
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B202" s="6" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B202" s="7" t="s">
+      <c r="C202" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C202" s="7" t="s">
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B203" s="7" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B203" s="8" t="s">
+      <c r="C203" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C203" s="8" t="s">
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B204" s="6" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B204" s="7" t="s">
+      <c r="C204" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C204" s="7" t="s">
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B205" s="7" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B205" s="8" t="s">
+      <c r="C205" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C205" s="8" t="s">
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B206" s="6" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B206" s="7" t="s">
+      <c r="C206" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C206" s="7" t="s">
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B207" s="7" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C207" s="8" t="s">
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B208" s="6" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B208" s="7" t="s">
+      <c r="C208" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C208" s="7" t="s">
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B209" s="7" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C209" s="8" t="s">
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B210" s="6" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B210" s="7" t="s">
+      <c r="C210" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C210" s="7" t="s">
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B211" s="7" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B211" s="8" t="s">
+      <c r="C211" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C211" s="8" t="s">
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B212" s="6" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B212" s="7" t="s">
+      <c r="C212" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C212" s="7" t="s">
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B213" s="7" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C213" s="8" t="s">
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B214" s="6" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B214" s="7" t="s">
+      <c r="C214" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C214" s="7" t="s">
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B215" s="7" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B215" s="8" t="s">
+      <c r="C215" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C215" s="8" t="s">
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B216" s="6" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B216" s="7" t="s">
+      <c r="C216" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C216" s="7" t="s">
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B217" s="7" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B217" s="8" t="s">
+      <c r="C217" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C217" s="8" t="s">
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B218" s="6" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B218" s="7" t="s">
+      <c r="C218" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C218" s="7" t="s">
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B219" s="7" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B219" s="8" t="s">
+      <c r="C219" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C219" s="8" t="s">
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B220" s="6" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B220" s="7" t="s">
+      <c r="C220" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C220" s="7" t="s">
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B221" s="7" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B221" s="8" t="s">
+      <c r="C221" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="C221" s="8" t="s">
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B222" s="6" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B222" s="7" t="s">
+      <c r="C222" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C222" s="7" t="s">
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B223" s="7" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B223" s="8" t="s">
+      <c r="C223" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C223" s="8" t="s">
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B224" s="6" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B224" s="7" t="s">
+      <c r="C224" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C224" s="7" t="s">
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B225" s="7" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B225" s="8" t="s">
+      <c r="C225" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C225" s="8" t="s">
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B226" s="6" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B226" s="7" t="s">
+      <c r="C226" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C226" s="7" t="s">
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B227" s="7" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B227" s="8" t="s">
+      <c r="C227" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="C227" s="8" t="s">
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B228" s="6" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B228" s="7" t="s">
+      <c r="C228" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C228" s="7" t="s">
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B229" s="7" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B229" s="8" t="s">
+      <c r="C229" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C229" s="8" t="s">
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B230" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C230" s="7" t="s">
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B231" s="7" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B231" s="8" t="s">
+      <c r="C231" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C231" s="8" t="s">
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B232" s="6" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B232" s="7" t="s">
+      <c r="C232" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C232" s="7" t="s">
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B233" s="7" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B233" s="8" t="s">
+      <c r="C233" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C233" s="8" t="s">
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B234" s="6" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B234" s="7" t="s">
+      <c r="C234" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C234" s="7" t="s">
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B235" s="7" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B235" s="8" t="s">
+      <c r="C235" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C235" s="8" t="s">
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B236" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B236" s="7" t="s">
+      <c r="C236" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C236" s="7" t="s">
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B237" s="7" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B237" s="8" t="s">
+      <c r="C237" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="C237" s="8" t="s">
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B238" s="6" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C238" s="7" t="s">
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B239" s="7" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B239" s="8" t="s">
+      <c r="C239" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="C239" s="8" t="s">
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B240" s="6" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B240" s="7" t="s">
+      <c r="C240" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C240" s="7" t="s">
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B241" s="7" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B241" s="8" t="s">
+      <c r="C241" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C241" s="8" t="s">
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B242" s="6" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B242" s="7" t="s">
+      <c r="C242" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C242" s="7" t="s">
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B243" s="7" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B243" s="8" t="s">
+      <c r="C243" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="C243" s="8" t="s">
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B244" s="6" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B244" s="7" t="s">
+      <c r="C244" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C244" s="7" t="s">
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B245" s="7" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B245" s="8" t="s">
+      <c r="C245" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C245" s="8" t="s">
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B246" s="6" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B246" s="7" t="s">
+      <c r="C246" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C246" s="7" t="s">
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B247" s="7" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B247" s="8" t="s">
+      <c r="C247" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="C247" s="8" t="s">
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B248" s="6" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B248" s="7" t="s">
+      <c r="C248" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C248" s="7" t="s">
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B249" s="7" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B249" s="8" t="s">
+      <c r="C249" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C249" s="8" t="s">
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B250" s="6" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B250" s="7" t="s">
+      <c r="C250" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C250" s="7" t="s">
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B251" s="7" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B251" s="8" t="s">
+      <c r="C251" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="C251" s="8" t="s">
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B252" s="6" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B252" s="7" t="s">
+      <c r="C252" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C252" s="7" t="s">
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B253" s="7" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B253" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="C253" s="8" t="s">
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B254" s="6" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B254" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C254" s="7" t="s">
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B255" s="7" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B255" s="8" t="s">
+      <c r="C255" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C255" s="8" t="s">
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B256" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B256" s="7" t="s">
+      <c r="C256" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C256" s="7" t="s">
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B257" s="7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B257" s="8" t="s">
+      <c r="C257" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C257" s="8" t="s">
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B258" s="6" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B258" s="7" t="s">
+      <c r="C258" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C258" s="7" t="s">
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B259" s="7" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B259" s="8" t="s">
+      <c r="C259" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C259" s="8" t="s">
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B260" s="6" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B260" s="7" t="s">
+      <c r="C260" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C260" s="7" t="s">
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B261" s="7" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B261" s="8" t="s">
+      <c r="C261" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C261" s="8" t="s">
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B262" s="6" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B262" s="7" t="s">
+      <c r="C262" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C262" s="7" t="s">
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B263" s="7" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B263" s="8" t="s">
+      <c r="C263" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C263" s="8" t="s">
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B264" s="6" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B264" s="7" t="s">
+      <c r="C264" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C264" s="7" t="s">
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B265" s="7" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B265" s="8" t="s">
+      <c r="C265" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="C265" s="8" t="s">
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B266" s="6" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B266" s="7" t="s">
+      <c r="C266" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C266" s="7" t="s">
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B267" s="7" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B267" s="8" t="s">
+      <c r="C267" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C267" s="8" t="s">
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B268" s="6" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B268" s="7" t="s">
+      <c r="C268" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C268" s="7" t="s">
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B269" s="7" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B269" s="8" t="s">
+      <c r="C269" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C269" s="8" t="s">
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B270" s="6" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B270" s="7" t="s">
+      <c r="C270" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C270" s="7" t="s">
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B271" s="7" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B271" s="8" t="s">
+      <c r="C271" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="C271" s="8" t="s">
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B272" s="6" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B272" s="7" t="s">
+      <c r="C272" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C272" s="7" t="s">
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B273" s="7" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B273" s="8" t="s">
+      <c r="C273" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C273" s="8" t="s">
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B274" s="6" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B274" s="7" t="s">
+      <c r="C274" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C274" s="7" t="s">
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B275" s="7" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B275" s="8" t="s">
+      <c r="C275" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="C275" s="8" t="s">
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B276" s="6" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B276" s="7" t="s">
+      <c r="C276" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C276" s="7" t="s">
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B277" s="7" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B277" s="8" t="s">
+      <c r="C277" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="C277" s="8" t="s">
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B278" s="6" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B278" s="7" t="s">
+      <c r="C278" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C278" s="7" t="s">
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B279" s="7" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B279" s="8" t="s">
+      <c r="C279" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C279" s="8" t="s">
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B280" s="6" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B280" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="C280" s="7" t="s">
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B281" s="7" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B281" s="8" t="s">
+      <c r="C281" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C281" s="8" t="s">
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B282" s="6" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B282" s="7" t="s">
+      <c r="C282" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="C282" s="7" t="s">
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B283" s="7" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B283" s="8" t="s">
+      <c r="C283" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="C283" s="8" t="s">
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B284" s="6" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B284" s="7" t="s">
+      <c r="C284" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C284" s="7" t="s">
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B285" s="7" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B285" s="8" t="s">
+      <c r="C285" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C285" s="8" t="s">
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B286" s="6" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B286" s="7" t="s">
+      <c r="C286" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C286" s="7" t="s">
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B287" s="7" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B287" s="8" t="s">
+      <c r="C287" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C287" s="8" t="s">
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B288" s="6" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B288" s="7" t="s">
+      <c r="C288" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="C288" s="7" t="s">
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B289" s="7" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B289" s="8" t="s">
+      <c r="C289" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="C289" s="8" t="s">
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B290" s="6" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B290" s="7" t="s">
+      <c r="C290" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="C290" s="7" t="s">
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B291" s="7" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B291" s="8" t="s">
+      <c r="C291" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="C291" s="8" t="s">
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B292" s="6" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B292" s="7" t="s">
+      <c r="C292" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C292" s="7" t="s">
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B293" s="7" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B293" s="8" t="s">
+      <c r="C293" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="C293" s="8" t="s">
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B294" s="6" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B294" s="7" t="s">
+      <c r="C294" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="C294" s="7" t="s">
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B295" s="7" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B295" s="8" t="s">
+      <c r="C295" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="C295" s="8" t="s">
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B296" s="6" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B296" s="7" t="s">
+      <c r="C296" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C296" s="7" t="s">
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B297" s="7" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B297" s="8" t="s">
+      <c r="C297" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="C297" s="8" t="s">
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B298" s="6" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B298" s="7" t="s">
+      <c r="C298" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C298" s="7" t="s">
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B299" s="7" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B299" s="8" t="s">
+      <c r="C299" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="C299" s="8" t="s">
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B300" s="6" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B300" s="7" t="s">
+      <c r="C300" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C300" s="7" t="s">
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B301" s="7" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B301" s="8" t="s">
+      <c r="C301" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="C301" s="8" t="s">
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B302" s="6" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B302" s="7" t="s">
+      <c r="C302" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="C302" s="7" t="s">
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B303" s="7" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B303" s="8" t="s">
+      <c r="C303" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="C303" s="8" t="s">
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B304" s="6" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B304" s="7" t="s">
+      <c r="C304" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="C304" s="7" t="s">
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B305" s="7" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B305" s="8" t="s">
+      <c r="C305" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="C305" s="8" t="s">
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B306" s="6" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B306" s="7" t="s">
+      <c r="C306" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C306" s="7" t="s">
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B307" s="7" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B307" s="8" t="s">
+      <c r="C307" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C307" s="8" t="s">
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B308" s="6" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B308" s="7" t="s">
+      <c r="C308" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="C308" s="7" t="s">
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B309" s="7" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B309" s="8" t="s">
+      <c r="C309" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="C309" s="8" t="s">
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B310" s="6" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B310" s="7" t="s">
+      <c r="C310" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="C310" s="7" t="s">
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B311" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B311" s="8" t="s">
+      <c r="C311" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="C311" s="8" t="s">
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B312" s="6" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B312" s="7" t="s">
+      <c r="C312" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C312" s="7" t="s">
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B313" s="7" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B313" s="8" t="s">
+      <c r="C313" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="C313" s="8" t="s">
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B314" s="6" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B314" s="7" t="s">
+      <c r="C314" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="C314" s="7" t="s">
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B315" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B315" s="8" t="s">
+      <c r="C315" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C315" s="8" t="s">
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B316" s="6" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B316" s="7" t="s">
+      <c r="C316" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C316" s="7" t="s">
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B317" s="7" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B317" s="8" t="s">
+      <c r="C317" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C317" s="8" t="s">
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B318" s="6" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B318" s="7" t="s">
+      <c r="C318" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="C318" s="7" t="s">
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B319" s="7" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B319" s="8" t="s">
+      <c r="C319" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C319" s="8" t="s">
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B320" s="6" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B320" s="7" t="s">
+      <c r="C320" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C320" s="7" t="s">
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B321" s="7" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B321" s="8" t="s">
+      <c r="C321" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="C321" s="8" t="s">
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B322" s="6" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B322" s="7" t="s">
+      <c r="C322" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="C322" s="7" t="s">
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B323" s="7" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B323" s="8" t="s">
+      <c r="C323" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="C323" s="8" t="s">
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B324" s="6" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B324" s="7" t="s">
+      <c r="C324" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C324" s="7" t="s">
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B325" s="7" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B325" s="8" t="s">
+      <c r="C325" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="C325" s="8" t="s">
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B326" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B326" s="7" t="s">
+      <c r="C326" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="C326" s="7" t="s">
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B327" s="7" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B327" s="8" t="s">
+      <c r="C327" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="C327" s="8" t="s">
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B328" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B328" s="7" t="s">
+      <c r="C328" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C328" s="7" t="s">
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B329" s="7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B329" s="8" t="s">
+      <c r="C329" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="C329" s="8" t="s">
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B330" s="6" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B330" s="7" t="s">
+      <c r="C330" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C330" s="7" t="s">
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B331" s="7" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B331" s="8" t="s">
+      <c r="C331" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="C331" s="8" t="s">
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B332" s="6" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B332" s="7" t="s">
+      <c r="C332" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C332" s="7" t="s">
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B333" s="7" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B333" s="8" t="s">
+      <c r="C333" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="C333" s="8" t="s">
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B334" s="6" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B334" s="7" t="s">
+      <c r="C334" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C334" s="7" t="s">
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B335" s="7" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B335" s="8" t="s">
+      <c r="C335" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="C335" s="8" t="s">
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B336" s="6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B336" s="7" t="s">
+      <c r="C336" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C336" s="7" t="s">
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B337" s="7" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B337" s="8" t="s">
+      <c r="C337" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="C337" s="8" t="s">
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B338" s="6" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B338" s="7" t="s">
+      <c r="C338" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C338" s="7" t="s">
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B339" s="7" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B339" s="8" t="s">
+      <c r="C339" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="C339" s="8" t="s">
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B340" s="6" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B340" s="7" t="s">
+      <c r="C340" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C340" s="7" t="s">
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B341" s="7" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B341" s="8" t="s">
+      <c r="C341" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="C341" s="8" t="s">
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B342" s="6" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B342" s="7" t="s">
+      <c r="C342" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C342" s="7" t="s">
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B343" s="7" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B343" s="8" t="s">
+      <c r="C343" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C343" s="8" t="s">
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B344" s="6" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B344" s="7" t="s">
+      <c r="C344" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C344" s="7" t="s">
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B345" s="7" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B345" s="8" t="s">
+      <c r="C345" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="C345" s="8" t="s">
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B346" s="6" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B346" s="7" t="s">
+      <c r="C346" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C346" s="7" t="s">
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B347" s="7" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B347" s="8" t="s">
+      <c r="C347" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="C347" s="8" t="s">
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B348" s="6" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B348" s="7" t="s">
+      <c r="C348" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C348" s="7" t="s">
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B349" s="7" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B349" s="8" t="s">
+      <c r="C349" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="C349" s="8" t="s">
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B350" s="6" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B350" s="7" t="s">
+      <c r="C350" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C350" s="7" t="s">
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B351" s="7" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B351" s="8" t="s">
+      <c r="C351" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C351" s="8" t="s">
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B352" s="6" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B352" s="7" t="s">
+      <c r="C352" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="C352" s="7" t="s">
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B353" s="7" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B353" s="8" t="s">
+      <c r="C353" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C353" s="8" t="s">
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B354" s="6" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B354" s="7" t="s">
+      <c r="C354" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="C354" s="7" t="s">
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B355" s="7" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B355" s="8" t="s">
+      <c r="C355" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="C355" s="8" t="s">
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B356" s="6" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B356" s="7" t="s">
+      <c r="C356" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="C356" s="7" t="s">
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B357" s="7" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B357" s="8" t="s">
+      <c r="C357" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="C357" s="8" t="s">
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B358" s="6" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B358" s="7" t="s">
+      <c r="C358" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="C358" s="7" t="s">
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B359" s="7" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B359" s="8" t="s">
+      <c r="C359" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="C359" s="8" t="s">
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B360" s="6" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B360" s="7" t="s">
+      <c r="C360" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C360" s="7" t="s">
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B361" s="7" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B361" s="8" t="s">
+      <c r="C361" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="C361" s="8" t="s">
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B362" s="6" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B362" s="7" t="s">
+      <c r="C362" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C362" s="7" t="s">
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B363" s="7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B363" s="8" t="s">
+      <c r="C363" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C363" s="8" t="s">
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B364" s="6" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B364" s="7" t="s">
+      <c r="C364" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C364" s="7" t="s">
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B365" s="7" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B365" s="8" t="s">
+      <c r="C365" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="C365" s="8" t="s">
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B366" s="6" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B366" s="7" t="s">
+      <c r="C366" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="C366" s="7" t="s">
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B367" s="7" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B367" s="8" t="s">
+      <c r="C367" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="C367" s="8" t="s">
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B368" s="6" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B368" s="7" t="s">
+      <c r="C368" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="C368" s="7" t="s">
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B369" s="7" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B369" s="8" t="s">
+      <c r="C369" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="C369" s="8" t="s">
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B370" s="6" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B370" s="7" t="s">
+      <c r="C370" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="C370" s="7" t="s">
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B371" s="7" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B371" s="8" t="s">
+      <c r="C371" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C371" s="8" t="s">
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B372" s="6" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B372" s="7" t="s">
+      <c r="C372" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="C372" s="7" t="s">
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B373" s="7" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B373" s="8" t="s">
+      <c r="C373" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="C373" s="8" t="s">
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B374" s="6" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B374" s="7" t="s">
+      <c r="C374" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="C374" s="7" t="s">
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B375" s="7" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B375" s="8" t="s">
+      <c r="C375" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="C375" s="8" t="s">
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B376" s="6" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B376" s="7" t="s">
+      <c r="C376" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="C376" s="7" t="s">
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B377" s="7" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B377" s="8" t="s">
+      <c r="C377" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="C377" s="8" t="s">
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B378" s="6" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B378" s="7" t="s">
+      <c r="C378" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="C378" s="7" t="s">
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B379" s="7" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B379" s="8" t="s">
+      <c r="C379" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="C379" s="8" t="s">
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B380" s="6" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B380" s="7" t="s">
+      <c r="C380" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="C380" s="7" t="s">
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B381" s="7" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B381" s="8" t="s">
+      <c r="C381" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="C381" s="8" t="s">
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B382" s="6" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B382" s="7" t="s">
+      <c r="C382" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="C382" s="7" t="s">
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B383" s="7" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B383" s="8" t="s">
+      <c r="C383" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="C383" s="8" t="s">
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B384" s="6" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B384" s="7" t="s">
+      <c r="C384" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="C384" s="7" t="s">
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B385" s="7" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B385" s="8" t="s">
+      <c r="C385" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="C385" s="8" t="s">
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B386" s="6" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B386" s="7" t="s">
+      <c r="C386" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="C386" s="7" t="s">
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B387" s="7" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B387" s="8" t="s">
+      <c r="C387" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="C387" s="8" t="s">
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B388" s="6" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B388" s="7" t="s">
+      <c r="C388" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="C388" s="7" t="s">
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B389" s="7" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B389" s="8" t="s">
+      <c r="C389" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="C389" s="8" t="s">
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B390" s="6" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B390" s="7" t="s">
+      <c r="C390" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="C390" s="7" t="s">
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B391" s="7" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B391" s="8" t="s">
+      <c r="C391" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="C391" s="8" t="s">
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B392" s="6" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B392" s="7" t="s">
+      <c r="C392" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="C392" s="7" t="s">
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B393" s="7" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B393" s="8" t="s">
+      <c r="C393" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="C393" s="8" t="s">
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B394" s="6" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B394" s="7" t="s">
+      <c r="C394" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="C394" s="7" t="s">
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B395" s="7" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B395" s="8" t="s">
+      <c r="C395" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="C395" s="8" t="s">
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B396" s="6" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B396" s="7" t="s">
+      <c r="C396" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="C396" s="7" t="s">
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B397" s="7" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B397" s="8" t="s">
+      <c r="C397" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="C397" s="8" t="s">
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B398" s="6" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B398" s="7" t="s">
+      <c r="C398" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="C398" s="7" t="s">
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B399" s="7" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B399" s="8" t="s">
+      <c r="C399" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="C399" s="8" t="s">
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B400" s="6" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B400" s="7" t="s">
+      <c r="C400" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="C400" s="7" t="s">
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B401" s="7" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B401" s="8" t="s">
+      <c r="C401" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="C401" s="8" t="s">
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B402" s="6" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B402" s="7" t="s">
+      <c r="C402" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="C402" s="7" t="s">
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B403" s="7" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B403" s="8" t="s">
+      <c r="C403" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="C403" s="8" t="s">
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B404" s="6" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B404" s="7" t="s">
+      <c r="C404" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="C404" s="7" t="s">
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B405" s="7" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B405" s="8" t="s">
+      <c r="C405" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="C405" s="8" t="s">
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B406" s="6" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B406" s="7" t="s">
+      <c r="C406" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="C406" s="7" t="s">
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B407" s="7" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B407" s="8" t="s">
+      <c r="C407" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="C407" s="8" t="s">
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B408" s="6" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B408" s="7" t="s">
+      <c r="C408" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="C408" s="7" t="s">
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B409" s="7" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B409" s="8" t="s">
+      <c r="C409" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="C409" s="8" t="s">
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B410" s="6" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B410" s="7" t="s">
+      <c r="C410" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="C410" s="7" t="s">
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B411" s="7" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B411" s="8" t="s">
+      <c r="C411" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="C411" s="8" t="s">
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B412" s="6" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B412" s="7" t="s">
+      <c r="C412" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="C412" s="7" t="s">
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B413" s="7" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B413" s="8" t="s">
+      <c r="C413" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="C413" s="8" t="s">
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B414" s="6" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B414" s="7" t="s">
+      <c r="C414" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="C414" s="7" t="s">
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B415" s="7" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B415" s="8" t="s">
+      <c r="C415" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="C415" s="8" t="s">
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B416" s="6" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B416" s="7" t="s">
+      <c r="C416" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="C416" s="7" t="s">
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B417" s="7" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B417" s="8" t="s">
+      <c r="C417" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="C417" s="8" t="s">
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B418" s="6" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B418" s="7" t="s">
+      <c r="C418" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="C418" s="7" t="s">
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B419" s="7" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B419" s="8" t="s">
+      <c r="C419" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C419" s="8" t="s">
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B420" s="6" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B420" s="7" t="s">
+      <c r="C420" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="C420" s="7" t="s">
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B421" s="7" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B421" s="8" t="s">
+      <c r="C421" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="C421" s="8" t="s">
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B422" s="6" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B422" s="7" t="s">
+      <c r="C422" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="C422" s="7" t="s">
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B423" s="7" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B423" s="8" t="s">
+      <c r="C423" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="C423" s="8" t="s">
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B424" s="6" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B424" s="7" t="s">
+      <c r="C424" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="C424" s="7" t="s">
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B425" s="7" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B425" s="8" t="s">
+      <c r="C425" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="C425" s="8" t="s">
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B426" s="6" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B426" s="7" t="s">
+      <c r="C426" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="C426" s="7" t="s">
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B427" s="7" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B427" s="8" t="s">
+      <c r="C427" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="C427" s="8" t="s">
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B428" s="6" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B428" s="7" t="s">
+      <c r="C428" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="C428" s="7" t="s">
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B429" s="7" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B429" s="8" t="s">
+      <c r="C429" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="C429" s="8" t="s">
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B430" s="6" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B430" s="7" t="s">
+      <c r="C430" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="C430" s="7" t="s">
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B431" s="7" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B431" s="8" t="s">
+      <c r="C431" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="C431" s="8" t="s">
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B432" s="6" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B432" s="7" t="s">
+      <c r="C432" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="C432" s="7" t="s">
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B433" s="7" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B433" s="8" t="s">
+      <c r="C433" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="C433" s="8" t="s">
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B434" s="6" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B434" s="7" t="s">
+      <c r="C434" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="C434" s="7" t="s">
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B435" s="7" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B435" s="8" t="s">
+      <c r="C435" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="C435" s="8" t="s">
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B436" s="6" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B436" s="7" t="s">
+      <c r="C436" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="C436" s="7" t="s">
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B437" s="7" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B437" s="8" t="s">
+      <c r="C437" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="C437" s="8" t="s">
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B438" s="6" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B438" s="7" t="s">
+      <c r="C438" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="C438" s="7" t="s">
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B439" s="7" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B439" s="8" t="s">
+      <c r="C439" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="C439" s="8" t="s">
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B440" s="6" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B440" s="7" t="s">
+      <c r="C440" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="C440" s="7" t="s">
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B441" s="7" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B441" s="8" t="s">
+      <c r="C441" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="C441" s="8" t="s">
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B442" s="6" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B442" s="7" t="s">
+      <c r="C442" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="C442" s="7" t="s">
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B443" s="7" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B443" s="8" t="s">
+      <c r="C443" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="C443" s="8" t="s">
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B444" s="6" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B444" s="7" t="s">
+      <c r="C444" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="C444" s="7" t="s">
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B445" s="7" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B445" s="8" t="s">
+      <c r="C445" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="C445" s="8" t="s">
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B446" s="6" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B446" s="7" t="s">
+      <c r="C446" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="C446" s="7" t="s">
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B447" s="7" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B447" s="8" t="s">
+      <c r="C447" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="C447" s="8" t="s">
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B448" s="6" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B448" s="7" t="s">
+      <c r="C448" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C448" s="7" t="s">
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B449" s="7" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B449" s="8" t="s">
+      <c r="C449" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="C449" s="8" t="s">
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B450" s="6" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B450" s="7" t="s">
+      <c r="C450" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="C450" s="7" t="s">
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B451" s="7" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B451" s="8" t="s">
+      <c r="C451" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="C451" s="8" t="s">
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B452" s="6" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B452" s="7" t="s">
+      <c r="C452" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="C452" s="7" t="s">
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B453" s="7" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B453" s="8" t="s">
+      <c r="C453" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="C453" s="8" t="s">
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B454" s="6" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B454" s="7" t="s">
+      <c r="C454" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="C454" s="7" t="s">
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B455" s="7" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B455" s="8" t="s">
+      <c r="C455" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="C455" s="8" t="s">
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B456" s="6" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B456" s="7" t="s">
+      <c r="C456" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="C456" s="7" t="s">
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B457" s="7" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B457" s="8" t="s">
+      <c r="C457" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="C457" s="8" t="s">
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B458" s="6" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B458" s="7" t="s">
+      <c r="C458" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="C458" s="7" t="s">
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B459" s="7" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B459" s="8" t="s">
+      <c r="C459" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="C459" s="8" t="s">
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B460" s="6" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B460" s="7" t="s">
+      <c r="C460" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="C460" s="7" t="s">
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B461" s="7" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B461" s="8" t="s">
+      <c r="C461" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="C461" s="8" t="s">
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B462" s="6" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B462" s="7" t="s">
+      <c r="C462" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="C462" s="7" t="s">
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B463" s="7" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B463" s="8" t="s">
+      <c r="C463" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="C463" s="8" t="s">
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B464" s="6" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B464" s="7" t="s">
+      <c r="C464" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="C464" s="7" t="s">
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B465" s="7" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B465" s="8" t="s">
+      <c r="C465" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="C465" s="8" t="s">
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B466" s="6" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B466" s="7" t="s">
+      <c r="C466" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="C466" s="7" t="s">
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B467" s="7" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B467" s="8" t="s">
+      <c r="C467" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="C467" s="8" t="s">
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B468" s="6" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B468" s="7" t="s">
+      <c r="C468" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="C468" s="7" t="s">
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B469" s="7" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B469" s="8" t="s">
+      <c r="C469" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="C469" s="8" t="s">
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B470" s="6" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B470" s="7" t="s">
+      <c r="C470" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="C470" s="7" t="s">
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B471" s="7" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B471" s="8" t="s">
+      <c r="C471" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="C471" s="8" t="s">
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B472" s="6" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B472" s="7" t="s">
+      <c r="C472" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="C472" s="7" t="s">
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B473" s="7" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B473" s="8" t="s">
+      <c r="C473" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="C473" s="8" t="s">
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B474" s="6" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B474" s="7" t="s">
+      <c r="C474" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="C474" s="7" t="s">
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B475" s="7" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B475" s="8" t="s">
+      <c r="C475" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="C475" s="8" t="s">
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B476" s="6" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B476" s="7" t="s">
+      <c r="C476" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="C476" s="7" t="s">
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B477" s="7" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B477" s="8" t="s">
+      <c r="C477" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="C477" s="8" t="s">
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B478" s="6" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B478" s="7" t="s">
+      <c r="C478" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="C478" s="7" t="s">
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B479" s="7" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B479" s="8" t="s">
+      <c r="C479" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="C479" s="8" t="s">
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B480" s="6" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B480" s="7" t="s">
+      <c r="C480" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="C480" s="7" t="s">
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B481" s="7" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B481" s="8" t="s">
+      <c r="C481" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="C481" s="8" t="s">
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B482" s="6" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B482" s="7" t="s">
+      <c r="C482" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="C482" s="7" t="s">
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B483" s="7" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B483" s="8" t="s">
+      <c r="C483" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="C483" s="8" t="s">
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B484" s="6" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B484" s="7" t="s">
+      <c r="C484" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="C484" s="7" t="s">
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B485" s="7" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B485" s="8" t="s">
+      <c r="C485" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="C485" s="8" t="s">
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B486" s="6" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B486" s="7" t="s">
+      <c r="C486" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="C486" s="7" t="s">
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B487" s="7" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B487" s="8" t="s">
+      <c r="C487" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="C487" s="8" t="s">
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B488" s="6" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B488" s="7" t="s">
+      <c r="C488" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="C488" s="7" t="s">
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B489" s="7" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B489" s="8" t="s">
+      <c r="C489" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="C489" s="8" t="s">
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B490" s="6" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B490" s="7" t="s">
+      <c r="C490" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="C490" s="7" t="s">
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B491" s="7" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B491" s="8" t="s">
+      <c r="C491" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="C491" s="8" t="s">
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B492" s="6" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B492" s="7" t="s">
+      <c r="C492" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="C492" s="7" t="s">
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B493" s="7" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B493" s="8" t="s">
+      <c r="C493" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="C493" s="8" t="s">
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B494" s="6" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B494" s="7" t="s">
+      <c r="C494" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="C494" s="7" t="s">
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B495" s="7" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B495" s="8" t="s">
+      <c r="C495" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="C495" s="8" t="s">
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B496" s="6" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B496" s="7" t="s">
+      <c r="C496" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="C496" s="7" t="s">
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B497" s="7" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B497" s="8" t="s">
+      <c r="C497" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="C497" s="8" t="s">
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B498" s="6" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B498" s="7" t="s">
+      <c r="C498" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="C498" s="7" t="s">
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B499" s="7" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B499" s="8" t="s">
+      <c r="C499" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="C499" s="8" t="s">
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B500" s="6" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B500" s="7" t="s">
+      <c r="C500" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="C500" s="7" t="s">
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B501" s="7" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B501" s="8" t="s">
+      <c r="C501" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="C501" s="8" t="s">
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B502" s="6" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B502" s="7" t="s">
+      <c r="C502" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="C502" s="7" t="s">
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B503" s="7" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B503" s="8" t="s">
+      <c r="C503" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="C503" s="8" t="s">
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B504" s="6" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B504" s="7" t="s">
+      <c r="C504" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="C504" s="7" t="s">
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B505" s="7" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B505" s="8" t="s">
+      <c r="C505" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="C505" s="8" t="s">
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B506" s="6" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B506" s="7" t="s">
+      <c r="C506" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="C506" s="7" t="s">
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B507" s="7" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B507" s="8" t="s">
+      <c r="C507" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="C507" s="8" t="s">
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B508" s="6" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B508" s="7" t="s">
+      <c r="C508" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="C508" s="7" t="s">
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B509" s="7" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B509" s="8" t="s">
+      <c r="C509" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="C509" s="8" t="s">
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B510" s="6" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B510" s="7" t="s">
+      <c r="C510" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="C510" s="7" t="s">
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B511" s="7" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B511" s="8" t="s">
+      <c r="C511" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="C511" s="8" t="s">
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B512" s="6" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B512" s="7" t="s">
+      <c r="C512" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="C512" s="7" t="s">
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B513" s="7" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B513" s="8" t="s">
+      <c r="C513" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="C513" s="8" t="s">
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B514" s="6" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B514" s="7" t="s">
+      <c r="C514" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="C514" s="7" t="s">
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B515" s="7" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B515" s="8" t="s">
+      <c r="C515" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="C515" s="8" t="s">
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B516" s="6" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B516" s="7" t="s">
+      <c r="C516" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="C516" s="7" t="s">
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B517" s="7" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B517" s="8" t="s">
+      <c r="C517" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="C517" s="8" t="s">
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B518" s="6" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B518" s="7" t="s">
+      <c r="C518" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="C518" s="7" t="s">
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B519" s="7" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B519" s="8" t="s">
+      <c r="C519" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="C519" s="8" t="s">
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B520" s="6" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B520" s="7" t="s">
+      <c r="C520" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="C520" s="7" t="s">
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B521" s="7" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B521" s="8" t="s">
+      <c r="C521" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="C521" s="8" t="s">
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B522" s="6" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B522" s="7" t="s">
+      <c r="C522" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="C522" s="7" t="s">
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B523" s="7" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B523" s="8" t="s">
+      <c r="C523" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="C523" s="8" t="s">
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B524" s="6" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B524" s="7" t="s">
+      <c r="C524" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="C524" s="7" t="s">
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B525" s="7" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B525" s="8" t="s">
+      <c r="C525" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="C525" s="8" t="s">
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B526" s="6" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B526" s="7" t="s">
+      <c r="C526" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="C526" s="7" t="s">
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B527" s="7" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B527" s="8" t="s">
+      <c r="C527" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="C527" s="8" t="s">
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B528" s="6" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B528" s="7" t="s">
+      <c r="C528" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="C528" s="7" t="s">
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B529" s="7" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B529" s="8" t="s">
+      <c r="C529" s="7" t="s">
         <v>1150</v>
-      </c>
-      <c r="C529" s="8" t="s">
-        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -8733,7 +8735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35D5343-7AF9-4915-A48D-F85B1D5C6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9288C6-500B-4235-8267-0DCE922460F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C49CA27-358F-E98A-C2E8-61183861DA00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F966D63-D68B-FB48-AAA9-71788BE6A8AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D192FC-734C-48A1-9E6D-3C1C8D0DDFD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DAAC70-2D79-407C-B4FF-6C8C30C6D313}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9288C6-500B-4235-8267-0DCE922460F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB02F128-229A-4C9F-A424-CB8165706819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F966D63-D68B-FB48-AAA9-71788BE6A8AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F495A2CE-36F9-7ECF-D868-C2F3234EA13C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DAAC70-2D79-407C-B4FF-6C8C30C6D313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A40599-F48A-4633-ACF7-880025CC168A}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB02F128-229A-4C9F-A424-CB8165706819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{778143B5-FCD6-42BF-B791-4D431EE7E9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F495A2CE-36F9-7ECF-D868-C2F3234EA13C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88949F21-B751-1E02-9066-18CE3E0EE15A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A40599-F48A-4633-ACF7-880025CC168A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0A17E9-2EE6-455A-8C8A-D3D1B3686A23}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778143B5-FCD6-42BF-B791-4D431EE7E9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D75E8B7-4F45-4577-97CB-34668AD24C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88949F21-B751-1E02-9066-18CE3E0EE15A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7154B7-6646-6282-938F-174B606ECCC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0A17E9-2EE6-455A-8C8A-D3D1B3686A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C2944D-86A3-431D-A3FF-8B97BE698BB7}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D75E8B7-4F45-4577-97CB-34668AD24C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{738047D5-A538-4502-854E-7F66EC0DF8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7154B7-6646-6282-938F-174B606ECCC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8630C52-E05B-93D1-87AC-552863B30200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C2944D-86A3-431D-A3FF-8B97BE698BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0969A3DF-1686-4E6E-897A-5199BD23A697}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738047D5-A538-4502-854E-7F66EC0DF8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E68215-3C06-4D95-BA34-F638ED81C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8630C52-E05B-93D1-87AC-552863B30200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FB1F6C-6FFB-EFDD-EA82-A63A1CA22B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0969A3DF-1686-4E6E-897A-5199BD23A697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B99C9-AA5B-4656-A47A-492BD1351454}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E68215-3C06-4D95-BA34-F638ED81C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31989E46-6326-40B9-98B5-F56DD9D8380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FB1F6C-6FFB-EFDD-EA82-A63A1CA22B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490BFAC9-2C93-7937-C9F7-CA22BF1445B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B99C9-AA5B-4656-A47A-492BD1351454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E01D905-5A18-4264-A0D1-39923985D1CF}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31989E46-6326-40B9-98B5-F56DD9D8380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA9169B-AE8A-4300-9DF3-977A9D9F1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490BFAC9-2C93-7937-C9F7-CA22BF1445B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6C4CBA-DF1F-8B1F-5F2A-DC327AC5039B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E01D905-5A18-4264-A0D1-39923985D1CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BCB763-5D04-4143-A734-E4DD57116468}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA9169B-AE8A-4300-9DF3-977A9D9F1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE376D68-CCD2-41D8-B994-CE2F07AD4015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4942,7 +4942,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6C4CBA-DF1F-8B1F-5F2A-DC327AC5039B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C0A87B-7748-13A9-8794-0FFB10C7CDFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BCB763-5D04-4143-A734-E4DD57116468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49FAFA6-E95A-4384-A632-6E0626BFE948}">
   <dimension ref="A1:H737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A38655E-6B1F-4782-84B6-410D76B8449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52485F27-B929-4917-B544-8B3D23B3A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -111,220 +111,226 @@
     <t>ep_gas_steam_turbine*,ep_oil_steam_turbine*</t>
   </si>
   <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>*hydro*</t>
+  </si>
+  <si>
+    <t>Hydro pumped stg</t>
+  </si>
+  <si>
+    <t>IGCC</t>
+  </si>
+  <si>
+    <t>ep_bioenergy*,bioen*</t>
+  </si>
+  <si>
+    <t>ep_gas_combined_cycle*,ep_oil_combined_cycle*,CCGT*,*GasCC*</t>
+  </si>
+  <si>
+    <t>ep_gas_gas_turbine*,ep_oil_gas_turbine*,gas turbine*,EN*CT*</t>
+  </si>
+  <si>
+    <t>ep_coal_CFB*,ep_coal_subcritical*,*subcritical*</t>
+  </si>
+  <si>
+    <t>*IGCC*</t>
+  </si>
+  <si>
+    <t>ep_coal_supercritical*,ep_coal_supercritical_CCS*,ep_coal_ultra-supercritical*,ep_coal_ultra-supercritical_CCS*,*supercritical*</t>
+  </si>
+  <si>
+    <t>Gas_Oil Steam</t>
+  </si>
+  <si>
+    <t>Int Comb</t>
+  </si>
+  <si>
+    <t>EN*STG?hb*,-*EV*</t>
+  </si>
+  <si>
+    <t>Util Batt Stg</t>
+  </si>
+  <si>
+    <t>*EV*</t>
+  </si>
+  <si>
+    <t>EV Batt</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>e*spv*</t>
+  </si>
+  <si>
+    <t>e*won*,e*wof*</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_transport</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>coal,gas,oil</t>
+  </si>
+  <si>
+    <t>geothermal,hydro,solar,wind</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>stepdown*</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>*ror*</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>*SMR*</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>-*SMR*</t>
+  </si>
+  <si>
+    <t>-*ror*</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>stepup*</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
     <t>Wind onshore</t>
   </si>
   <si>
     <t>Wind offshore</t>
   </si>
   <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>*hydro*</t>
-  </si>
-  <si>
-    <t>Hydro pumped stg</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>ep_bioenergy*,bioen*</t>
-  </si>
-  <si>
-    <t>ep_gas_combined_cycle*,ep_oil_combined_cycle*,CCGT*,*GasCC*</t>
-  </si>
-  <si>
-    <t>ep_gas_gas_turbine*,ep_oil_gas_turbine*,gas turbine*,EN*CT*</t>
-  </si>
-  <si>
-    <t>ep_coal_CFB*,ep_coal_subcritical*,*subcritical*</t>
-  </si>
-  <si>
-    <t>*IGCC*</t>
-  </si>
-  <si>
-    <t>ep_coal_supercritical*,ep_coal_supercritical_CCS*,ep_coal_ultra-supercritical*,ep_coal_ultra-supercritical_CCS*,*supercritical*</t>
-  </si>
-  <si>
-    <t>Gas_Oil Steam</t>
-  </si>
-  <si>
-    <t>Int Comb</t>
-  </si>
-  <si>
-    <t>EN*STG?hb*,-*EV*</t>
-  </si>
-  <si>
-    <t>Util Batt Stg</t>
-  </si>
-  <si>
-    <t>*EV*</t>
-  </si>
-  <si>
-    <t>EV Batt</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
-    <t>g[_]*</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>e*spv*</t>
-  </si>
-  <si>
-    <t>e*won*,e*wof*</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>elc_transport</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>co2captured</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>EVs</t>
-  </si>
-  <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>coal,gas,oil</t>
-  </si>
-  <si>
-    <t>geothermal,hydro,solar,wind</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>stepdown*</t>
-  </si>
-  <si>
-    <t>Nuclear P</t>
-  </si>
-  <si>
-    <t>*ror*</t>
-  </si>
-  <si>
-    <t>Hydro RoR</t>
-  </si>
-  <si>
-    <t>Geothermal P</t>
-  </si>
-  <si>
-    <t>Bio Power</t>
-  </si>
-  <si>
-    <t>Nuclear SMR</t>
-  </si>
-  <si>
-    <t>*SMR*</t>
-  </si>
-  <si>
-    <t>Solar Util</t>
-  </si>
-  <si>
-    <t>-*SMR*</t>
-  </si>
-  <si>
-    <t>-*ror*</t>
-  </si>
-  <si>
-    <t>Hydro Dam</t>
-  </si>
-  <si>
-    <t>renewable</t>
-  </si>
-  <si>
-    <t>Solar elec</t>
-  </si>
-  <si>
-    <t>Wind elec</t>
-  </si>
-  <si>
     <t>distr*</t>
-  </si>
-  <si>
-    <t>Aggregators</t>
-  </si>
-  <si>
-    <t>IMP*Z</t>
-  </si>
-  <si>
-    <t>DUMMY_IMP</t>
-  </si>
-  <si>
-    <t>stepup*</t>
-  </si>
-  <si>
-    <t>Transformers Up</t>
-  </si>
-  <si>
-    <t>Transformers Dn</t>
-  </si>
-  <si>
-    <t>windon</t>
-  </si>
-  <si>
-    <t>windoff</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1042,39 +1048,39 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" t="str">
         <f>B28</f>
@@ -1083,7 +1089,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="str">
         <f>B29</f>
@@ -1092,7 +1098,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="str">
         <f>B30</f>
@@ -1101,7 +1107,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" t="str">
         <f>B31</f>
@@ -1110,39 +1116,39 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" t="str">
         <f>B36</f>
@@ -1151,7 +1157,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" t="str">
         <f>B37</f>
@@ -1171,8 +1177,8 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1232,10 +1238,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -1243,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -1251,26 +1257,26 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1278,7 +1284,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -1286,51 +1292,57 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1338,13 +1350,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1352,121 +1364,121 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -1744,18 +1756,18 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30AA8543-64AF-468A-A779-05466DB5BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21436024-DB39-4A43-BDCE-74E4733EB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6853,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A89DBE-CA4F-415C-8402-BDE2F2456DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2992A60D-D087-44D5-8172-CFE0BE66B181}">
   <dimension ref="B2:C948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21436024-DB39-4A43-BDCE-74E4733EB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03633ACB-4945-4006-9B36-54FF846866C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6853,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2992A60D-D087-44D5-8172-CFE0BE66B181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C02F06B-7169-462D-A3B7-9D34D5E72C6A}">
   <dimension ref="B2:C948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03633ACB-4945-4006-9B36-54FF846866C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F7682E-8E25-42DD-BCBB-CBFD22ABE35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6853,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C02F06B-7169-462D-A3B7-9D34D5E72C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ACCFD1-4C3F-4C3E-8F4A-AD49137BCD25}">
   <dimension ref="B2:C948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
+++ b/VerveStacks_ITA_grids/Sets-vervestacks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F7682E-8E25-42DD-BCBB-CBFD22ABE35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7FABCEE-DE6E-44D7-91C5-459474C189AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6853,7 +6853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ACCFD1-4C3F-4C3E-8F4A-AD49137BCD25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA7D6E-ED3B-4A7C-A2ED-36F80BE0D67A}">
   <dimension ref="B2:C948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
